--- a/experiment_results/worst_case/Elevator/4wise/0.5_worst_case.xlsx
+++ b/experiment_results/worst_case/Elevator/4wise/0.5_worst_case.xlsx
@@ -483,7 +483,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>152</v>
+        <v>214</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -506,16 +506,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
       <c r="D3">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E3">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -547,7 +547,7 @@
         <v>4</v>
       </c>
       <c r="E4">
-        <v>152</v>
+        <v>214</v>
       </c>
       <c r="G4">
         <v>123</v>
@@ -579,7 +579,7 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G5">
         <v>164</v>
@@ -602,16 +602,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E6">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -634,16 +634,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>149</v>
+        <v>210</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -675,7 +675,7 @@
         <v>5</v>
       </c>
       <c r="E8">
-        <v>152</v>
+        <v>214</v>
       </c>
       <c r="G8">
         <v>63</v>
@@ -707,7 +707,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G9">
         <v>60</v>
@@ -730,16 +730,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E10">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G10">
         <v>8</v>
@@ -762,16 +762,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="C11">
         <v>5</v>
       </c>
       <c r="D11">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="E11">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G11">
         <v>14</v>
@@ -803,7 +803,7 @@
         <v>86</v>
       </c>
       <c r="E12">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G12">
         <v>7</v>
@@ -835,7 +835,7 @@
         <v>53</v>
       </c>
       <c r="E13">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G13">
         <v>7</v>
@@ -858,16 +858,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="C14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E14">
-        <v>149</v>
+        <v>209</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -890,16 +890,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C15">
         <v>11</v>
       </c>
       <c r="D15">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="E15">
-        <v>152</v>
+        <v>213</v>
       </c>
       <c r="G15">
         <v>96</v>
@@ -976,7 +976,7 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>152</v>
+        <v>214</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -1008,7 +1008,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -1031,16 +1031,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C4">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D4">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E4">
-        <v>152</v>
+        <v>214</v>
       </c>
       <c r="G4">
         <v>102</v>
@@ -1063,16 +1063,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C5">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D5">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="E5">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G5">
         <v>158</v>
@@ -1104,7 +1104,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -1127,16 +1127,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="E7">
-        <v>149</v>
+        <v>210</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1168,7 +1168,7 @@
         <v>5</v>
       </c>
       <c r="E8">
-        <v>152</v>
+        <v>214</v>
       </c>
       <c r="G8">
         <v>33</v>
@@ -1191,16 +1191,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C9">
         <v>26</v>
       </c>
       <c r="D9">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E9">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G9">
         <v>49</v>
@@ -1232,7 +1232,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -1264,7 +1264,7 @@
         <v>6</v>
       </c>
       <c r="E11">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -1296,7 +1296,7 @@
         <v>64</v>
       </c>
       <c r="E12">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G12">
         <v>7</v>
@@ -1328,7 +1328,7 @@
         <v>31</v>
       </c>
       <c r="E13">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G13">
         <v>7</v>
@@ -1351,16 +1351,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="C14">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D14">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E14">
-        <v>149</v>
+        <v>209</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -1383,16 +1383,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C15">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D15">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="E15">
-        <v>152</v>
+        <v>213</v>
       </c>
       <c r="G15">
         <v>93</v>
@@ -1469,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>152</v>
+        <v>214</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -1501,7 +1501,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -1524,16 +1524,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C4">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>152</v>
+        <v>214</v>
       </c>
       <c r="G4">
         <v>104</v>
@@ -1556,16 +1556,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="C5">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="D5">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="E5">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G5">
         <v>158</v>
@@ -1597,7 +1597,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -1620,16 +1620,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E7">
-        <v>149</v>
+        <v>210</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -1652,16 +1652,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E8">
-        <v>152</v>
+        <v>214</v>
       </c>
       <c r="G8">
         <v>33</v>
@@ -1684,16 +1684,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C9">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D9">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="E9">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G9">
         <v>51</v>
@@ -1725,7 +1725,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -1757,7 +1757,7 @@
         <v>13</v>
       </c>
       <c r="E11">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -1789,7 +1789,7 @@
         <v>67</v>
       </c>
       <c r="E12">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G12">
         <v>7</v>
@@ -1821,7 +1821,7 @@
         <v>33</v>
       </c>
       <c r="E13">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G13">
         <v>7</v>
@@ -1844,16 +1844,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="C14">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D14">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E14">
-        <v>149</v>
+        <v>209</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -1876,16 +1876,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="C15">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D15">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="E15">
-        <v>152</v>
+        <v>213</v>
       </c>
       <c r="G15">
         <v>93</v>
@@ -1962,7 +1962,7 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>152</v>
+        <v>214</v>
       </c>
       <c r="G2">
         <v>69</v>
@@ -1994,7 +1994,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -2017,16 +2017,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="C4">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="D4">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="E4">
-        <v>152</v>
+        <v>214</v>
       </c>
       <c r="G4">
         <v>266</v>
@@ -2049,16 +2049,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="C5">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="D5">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="E5">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G5">
         <v>418</v>
@@ -2090,7 +2090,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -2113,16 +2113,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="C7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="E7">
-        <v>149</v>
+        <v>210</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -2145,16 +2145,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C8">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D8">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E8">
-        <v>152</v>
+        <v>214</v>
       </c>
       <c r="G8">
         <v>108</v>
@@ -2177,16 +2177,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="C9">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="D9">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="E9">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G9">
         <v>408</v>
@@ -2218,7 +2218,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -2250,7 +2250,7 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -2282,7 +2282,7 @@
         <v>67</v>
       </c>
       <c r="E12">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G12">
         <v>7</v>
@@ -2314,7 +2314,7 @@
         <v>38</v>
       </c>
       <c r="E13">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G13">
         <v>7</v>
@@ -2337,16 +2337,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C14">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="D14">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E14">
-        <v>149</v>
+        <v>209</v>
       </c>
       <c r="G14">
         <v>5</v>
@@ -2369,16 +2369,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C15">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="D15">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="E15">
-        <v>152</v>
+        <v>213</v>
       </c>
       <c r="G15">
         <v>320</v>
@@ -2449,13 +2449,13 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D2">
         <v>2</v>
       </c>
       <c r="E2">
-        <v>152</v>
+        <v>214</v>
       </c>
       <c r="G2">
         <v>69</v>
@@ -2487,7 +2487,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -2510,16 +2510,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D4">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="E4">
-        <v>152</v>
+        <v>214</v>
       </c>
       <c r="G4">
         <v>266</v>
@@ -2542,16 +2542,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="C5">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="D5">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="E5">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G5">
         <v>418</v>
@@ -2583,7 +2583,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -2606,16 +2606,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="C7">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="D7">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="E7">
-        <v>149</v>
+        <v>210</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -2638,16 +2638,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C8">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D8">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="E8">
-        <v>152</v>
+        <v>214</v>
       </c>
       <c r="G8">
         <v>108</v>
@@ -2670,16 +2670,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="C9">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="D9">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="E9">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G9">
         <v>408</v>
@@ -2711,7 +2711,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -2743,7 +2743,7 @@
         <v>29</v>
       </c>
       <c r="E11">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -2775,7 +2775,7 @@
         <v>67</v>
       </c>
       <c r="E12">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G12">
         <v>7</v>
@@ -2807,7 +2807,7 @@
         <v>38</v>
       </c>
       <c r="E13">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G13">
         <v>7</v>
@@ -2830,16 +2830,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="C14">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="D14">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E14">
-        <v>149</v>
+        <v>209</v>
       </c>
       <c r="G14">
         <v>5</v>
@@ -2862,16 +2862,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>95</v>
+        <v>133</v>
       </c>
       <c r="C15">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D15">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="E15">
-        <v>152</v>
+        <v>213</v>
       </c>
       <c r="G15">
         <v>320</v>
@@ -2948,7 +2948,7 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>152</v>
+        <v>214</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -2980,7 +2980,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -3003,16 +3003,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>7</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4">
-        <v>152</v>
+        <v>214</v>
       </c>
       <c r="G4">
         <v>62</v>
@@ -3035,16 +3035,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C5">
         <v>9</v>
       </c>
       <c r="D5">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E5">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G5">
         <v>37</v>
@@ -3076,7 +3076,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -3099,16 +3099,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>149</v>
+        <v>210</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -3140,7 +3140,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>152</v>
+        <v>214</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -3172,7 +3172,7 @@
         <v>4</v>
       </c>
       <c r="E9">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G9">
         <v>6</v>
@@ -3204,7 +3204,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -3236,7 +3236,7 @@
         <v>7</v>
       </c>
       <c r="E11">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -3268,7 +3268,7 @@
         <v>59</v>
       </c>
       <c r="E12">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G12">
         <v>7</v>
@@ -3300,7 +3300,7 @@
         <v>27</v>
       </c>
       <c r="E13">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G13">
         <v>7</v>
@@ -3323,16 +3323,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="C14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E14">
-        <v>149</v>
+        <v>209</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -3355,16 +3355,16 @@
         <v>23</v>
       </c>
       <c r="B15">
+        <v>18</v>
+      </c>
+      <c r="C15">
+        <v>11</v>
+      </c>
+      <c r="D15">
         <v>17</v>
       </c>
-      <c r="C15">
-        <v>10</v>
-      </c>
-      <c r="D15">
-        <v>16</v>
-      </c>
       <c r="E15">
-        <v>152</v>
+        <v>213</v>
       </c>
       <c r="G15">
         <v>43</v>
@@ -3441,7 +3441,7 @@
         <v>12</v>
       </c>
       <c r="E2">
-        <v>152</v>
+        <v>214</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -3473,7 +3473,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -3505,7 +3505,7 @@
         <v>15</v>
       </c>
       <c r="E4">
-        <v>152</v>
+        <v>214</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -3537,7 +3537,7 @@
         <v>18</v>
       </c>
       <c r="E5">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -3569,7 +3569,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -3592,16 +3592,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="E7">
-        <v>149</v>
+        <v>210</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -3633,7 +3633,7 @@
         <v>8</v>
       </c>
       <c r="E8">
-        <v>152</v>
+        <v>214</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -3665,7 +3665,7 @@
         <v>8</v>
       </c>
       <c r="E9">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -3697,7 +3697,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -3729,7 +3729,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -3761,7 +3761,7 @@
         <v>38</v>
       </c>
       <c r="E12">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G12">
         <v>5</v>
@@ -3793,7 +3793,7 @@
         <v>2</v>
       </c>
       <c r="E13">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -3816,16 +3816,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="E14">
-        <v>149</v>
+        <v>209</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -3848,16 +3848,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15">
         <v>9</v>
       </c>
       <c r="D15">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E15">
-        <v>152</v>
+        <v>213</v>
       </c>
       <c r="G15">
         <v>7</v>
@@ -3934,7 +3934,7 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>152</v>
+        <v>214</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -3966,7 +3966,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -3989,16 +3989,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>9</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4">
-        <v>152</v>
+        <v>214</v>
       </c>
       <c r="G4">
         <v>58</v>
@@ -4030,7 +4030,7 @@
         <v>18</v>
       </c>
       <c r="E5">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G5">
         <v>34</v>
@@ -4062,7 +4062,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -4085,16 +4085,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>149</v>
+        <v>210</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -4126,7 +4126,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>152</v>
+        <v>214</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -4158,7 +4158,7 @@
         <v>6</v>
       </c>
       <c r="E9">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G9">
         <v>6</v>
@@ -4190,7 +4190,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -4222,7 +4222,7 @@
         <v>3</v>
       </c>
       <c r="E11">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -4254,7 +4254,7 @@
         <v>59</v>
       </c>
       <c r="E12">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G12">
         <v>7</v>
@@ -4286,7 +4286,7 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G13">
         <v>7</v>
@@ -4309,16 +4309,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="C14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E14">
-        <v>149</v>
+        <v>209</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -4341,16 +4341,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15">
         <v>10</v>
       </c>
       <c r="D15">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E15">
-        <v>152</v>
+        <v>213</v>
       </c>
       <c r="G15">
         <v>40</v>
@@ -4427,7 +4427,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>152</v>
+        <v>214</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -4459,7 +4459,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -4491,7 +4491,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>152</v>
+        <v>214</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -4523,7 +4523,7 @@
         <v>18</v>
       </c>
       <c r="E5">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -4555,7 +4555,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -4578,16 +4578,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>149</v>
+        <v>210</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -4619,7 +4619,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>152</v>
+        <v>214</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -4651,7 +4651,7 @@
         <v>4</v>
       </c>
       <c r="E9">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -4683,7 +4683,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -4715,7 +4715,7 @@
         <v>6</v>
       </c>
       <c r="E11">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -4747,7 +4747,7 @@
         <v>36</v>
       </c>
       <c r="E12">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -4779,7 +4779,7 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -4802,16 +4802,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="C14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E14">
-        <v>149</v>
+        <v>209</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -4834,16 +4834,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C15">
         <v>11</v>
       </c>
       <c r="D15">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15">
-        <v>152</v>
+        <v>213</v>
       </c>
       <c r="G15">
         <v>7</v>
@@ -4920,7 +4920,7 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>152</v>
+        <v>214</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -4943,16 +4943,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -4975,16 +4975,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C4">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E4">
-        <v>152</v>
+        <v>214</v>
       </c>
       <c r="G4">
         <v>123</v>
@@ -5007,16 +5007,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="C5">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D5">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="E5">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G5">
         <v>164</v>
@@ -5039,16 +5039,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E6">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -5071,16 +5071,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="C7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D7">
-        <v>-1</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>149</v>
+        <v>210</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -5103,16 +5103,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E8">
-        <v>152</v>
+        <v>214</v>
       </c>
       <c r="G8">
         <v>63</v>
@@ -5135,16 +5135,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C9">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D9">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E9">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G9">
         <v>60</v>
@@ -5167,16 +5167,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E10">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G10">
         <v>8</v>
@@ -5199,16 +5199,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="C11">
         <v>21</v>
       </c>
       <c r="D11">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E11">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G11">
         <v>14</v>
@@ -5231,16 +5231,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C12">
         <v>17</v>
       </c>
       <c r="D12">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="E12">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G12">
         <v>7</v>
@@ -5263,16 +5263,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C13">
         <v>6</v>
       </c>
       <c r="D13">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E13">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G13">
         <v>7</v>
@@ -5295,16 +5295,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="C14">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D14">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E14">
-        <v>149</v>
+        <v>209</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -5327,16 +5327,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="C15">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D15">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="E15">
-        <v>152</v>
+        <v>213</v>
       </c>
       <c r="G15">
         <v>96</v>
@@ -5404,16 +5404,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>152</v>
+        <v>214</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -5445,7 +5445,7 @@
         <v>3</v>
       </c>
       <c r="E3">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -5468,16 +5468,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C4">
         <v>8</v>
       </c>
       <c r="D4">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>152</v>
+        <v>214</v>
       </c>
       <c r="G4">
         <v>52</v>
@@ -5509,7 +5509,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G5">
         <v>34</v>
@@ -5541,7 +5541,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -5564,16 +5564,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="C7">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E7">
-        <v>149</v>
+        <v>210</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -5596,16 +5596,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E8">
-        <v>152</v>
+        <v>214</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -5637,7 +5637,7 @@
         <v>4</v>
       </c>
       <c r="E9">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G9">
         <v>6</v>
@@ -5669,7 +5669,7 @@
         <v>3</v>
       </c>
       <c r="E10">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -5701,7 +5701,7 @@
         <v>3</v>
       </c>
       <c r="E11">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -5733,7 +5733,7 @@
         <v>4</v>
       </c>
       <c r="E12">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G12">
         <v>7</v>
@@ -5765,7 +5765,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G13">
         <v>7</v>
@@ -5788,16 +5788,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>149</v>
+        <v>209</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -5820,16 +5820,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C15">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D15">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>152</v>
+        <v>213</v>
       </c>
       <c r="G15">
         <v>40</v>
@@ -5897,16 +5897,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2">
-        <v>152</v>
+        <v>214</v>
       </c>
       <c r="G2">
         <v>43</v>
@@ -5938,7 +5938,7 @@
         <v>3</v>
       </c>
       <c r="E3">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G3">
         <v>7</v>
@@ -5961,16 +5961,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C4">
         <v>11</v>
       </c>
       <c r="D4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4">
-        <v>152</v>
+        <v>214</v>
       </c>
       <c r="G4">
         <v>32</v>
@@ -6002,7 +6002,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G5">
         <v>11</v>
@@ -6034,7 +6034,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -6057,16 +6057,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>-1</v>
+        <v>24</v>
       </c>
       <c r="C7">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="E7">
-        <v>149</v>
+        <v>210</v>
       </c>
       <c r="G7">
         <v>35</v>
@@ -6089,16 +6089,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E8">
-        <v>152</v>
+        <v>214</v>
       </c>
       <c r="G8">
         <v>28</v>
@@ -6130,7 +6130,7 @@
         <v>9</v>
       </c>
       <c r="E9">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G9">
         <v>11</v>
@@ -6162,7 +6162,7 @@
         <v>3</v>
       </c>
       <c r="E10">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G10">
         <v>8</v>
@@ -6194,7 +6194,7 @@
         <v>3</v>
       </c>
       <c r="E11">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G11">
         <v>7</v>
@@ -6226,7 +6226,7 @@
         <v>10</v>
       </c>
       <c r="E12">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G12">
         <v>9</v>
@@ -6258,7 +6258,7 @@
         <v>4</v>
       </c>
       <c r="E13">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G13">
         <v>8</v>
@@ -6281,16 +6281,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E14">
-        <v>149</v>
+        <v>209</v>
       </c>
       <c r="G14">
         <v>7</v>
@@ -6313,16 +6313,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C15">
         <v>10</v>
       </c>
       <c r="D15">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>152</v>
+        <v>213</v>
       </c>
       <c r="G15">
         <v>47</v>
@@ -6390,16 +6390,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="C2">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D2">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="E2">
-        <v>152</v>
+        <v>214</v>
       </c>
       <c r="G2">
         <v>222</v>
@@ -6431,7 +6431,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -6454,16 +6454,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>115</v>
+        <v>155</v>
       </c>
       <c r="C4">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D4">
-        <v>114</v>
+        <v>154</v>
       </c>
       <c r="E4">
-        <v>152</v>
+        <v>214</v>
       </c>
       <c r="G4">
         <v>325</v>
@@ -6486,16 +6486,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="C5">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="D5">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="E5">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G5">
         <v>418</v>
@@ -6527,7 +6527,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -6550,16 +6550,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>-1</v>
+        <v>85</v>
       </c>
       <c r="C7">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="D7">
-        <v>-1</v>
+        <v>84</v>
       </c>
       <c r="E7">
-        <v>149</v>
+        <v>210</v>
       </c>
       <c r="G7">
         <v>118</v>
@@ -6582,16 +6582,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="C8">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D8">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="E8">
-        <v>152</v>
+        <v>214</v>
       </c>
       <c r="G8">
         <v>319</v>
@@ -6614,16 +6614,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="C9">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="D9">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="E9">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G9">
         <v>418</v>
@@ -6655,7 +6655,7 @@
         <v>2</v>
       </c>
       <c r="E10">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -6678,16 +6678,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="C11">
         <v>20</v>
       </c>
       <c r="D11">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="E11">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G11">
         <v>106</v>
@@ -6710,16 +6710,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="C12">
         <v>16</v>
       </c>
       <c r="D12">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="E12">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G12">
         <v>115</v>
@@ -6742,16 +6742,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="C13">
         <v>15</v>
       </c>
       <c r="D13">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="E13">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G13">
         <v>51</v>
@@ -6774,16 +6774,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>-1</v>
+        <v>119</v>
       </c>
       <c r="C14">
-        <v>-1</v>
+        <v>23</v>
       </c>
       <c r="D14">
-        <v>-1</v>
+        <v>118</v>
       </c>
       <c r="E14">
-        <v>149</v>
+        <v>209</v>
       </c>
       <c r="G14">
         <v>123</v>
@@ -6806,16 +6806,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="C15">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D15">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="E15">
-        <v>152</v>
+        <v>213</v>
       </c>
       <c r="G15">
         <v>336</v>
@@ -6883,16 +6883,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="C2">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D2">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="E2">
-        <v>152</v>
+        <v>214</v>
       </c>
       <c r="G2">
         <v>222</v>
@@ -6924,7 +6924,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -6947,16 +6947,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>115</v>
+        <v>155</v>
       </c>
       <c r="C4">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="D4">
-        <v>114</v>
+        <v>154</v>
       </c>
       <c r="E4">
-        <v>152</v>
+        <v>214</v>
       </c>
       <c r="G4">
         <v>325</v>
@@ -6979,16 +6979,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="C5">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="D5">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="E5">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G5">
         <v>418</v>
@@ -7020,7 +7020,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -7043,16 +7043,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>-1</v>
+        <v>86</v>
       </c>
       <c r="C7">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="D7">
-        <v>-1</v>
+        <v>85</v>
       </c>
       <c r="E7">
-        <v>149</v>
+        <v>210</v>
       </c>
       <c r="G7">
         <v>118</v>
@@ -7075,16 +7075,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="C8">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="D8">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="E8">
-        <v>152</v>
+        <v>214</v>
       </c>
       <c r="G8">
         <v>319</v>
@@ -7107,16 +7107,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="C9">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="D9">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="E9">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G9">
         <v>418</v>
@@ -7148,7 +7148,7 @@
         <v>2</v>
       </c>
       <c r="E10">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -7171,16 +7171,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="C11">
         <v>23</v>
       </c>
       <c r="D11">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="E11">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G11">
         <v>106</v>
@@ -7203,16 +7203,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="C12">
         <v>19</v>
       </c>
       <c r="D12">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="E12">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G12">
         <v>115</v>
@@ -7235,16 +7235,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="C13">
         <v>15</v>
       </c>
       <c r="D13">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="E13">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G13">
         <v>51</v>
@@ -7267,16 +7267,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>-1</v>
+        <v>116</v>
       </c>
       <c r="C14">
-        <v>-1</v>
+        <v>25</v>
       </c>
       <c r="D14">
-        <v>-1</v>
+        <v>115</v>
       </c>
       <c r="E14">
-        <v>149</v>
+        <v>209</v>
       </c>
       <c r="G14">
         <v>123</v>
@@ -7299,16 +7299,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="C15">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="D15">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="E15">
-        <v>152</v>
+        <v>213</v>
       </c>
       <c r="G15">
         <v>336</v>
@@ -7385,7 +7385,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>152</v>
+        <v>214</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -7417,7 +7417,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -7449,7 +7449,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>152</v>
+        <v>214</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -7481,7 +7481,7 @@
         <v>77</v>
       </c>
       <c r="E5">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -7513,7 +7513,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -7536,16 +7536,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>149</v>
+        <v>210</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -7577,7 +7577,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>152</v>
+        <v>214</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -7609,7 +7609,7 @@
         <v>61</v>
       </c>
       <c r="E9">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -7641,7 +7641,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -7673,7 +7673,7 @@
         <v>6</v>
       </c>
       <c r="E11">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -7705,7 +7705,7 @@
         <v>36</v>
       </c>
       <c r="E12">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G12">
         <v>7</v>
@@ -7737,7 +7737,7 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -7760,16 +7760,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="C14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E14">
-        <v>149</v>
+        <v>209</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -7792,16 +7792,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C15">
         <v>11</v>
       </c>
       <c r="D15">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15">
-        <v>152</v>
+        <v>213</v>
       </c>
       <c r="G15">
         <v>7</v>

--- a/experiment_results/worst_case/Elevator/4wise/0.5_worst_case.xlsx
+++ b/experiment_results/worst_case/Elevator/4wise/0.5_worst_case.xlsx
@@ -483,7 +483,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>214</v>
+        <v>307</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -506,16 +506,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
       <c r="D3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E3">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -547,7 +547,7 @@
         <v>4</v>
       </c>
       <c r="E4">
-        <v>214</v>
+        <v>307</v>
       </c>
       <c r="G4">
         <v>123</v>
@@ -579,7 +579,7 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G5">
         <v>164</v>
@@ -602,16 +602,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -634,16 +634,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>210</v>
+        <v>301</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -675,7 +675,7 @@
         <v>5</v>
       </c>
       <c r="E8">
-        <v>214</v>
+        <v>307</v>
       </c>
       <c r="G8">
         <v>63</v>
@@ -707,7 +707,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G9">
         <v>60</v>
@@ -730,16 +730,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E10">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G10">
         <v>8</v>
@@ -762,16 +762,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C11">
         <v>5</v>
       </c>
       <c r="D11">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E11">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G11">
         <v>14</v>
@@ -803,7 +803,7 @@
         <v>86</v>
       </c>
       <c r="E12">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G12">
         <v>7</v>
@@ -835,7 +835,7 @@
         <v>53</v>
       </c>
       <c r="E13">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G13">
         <v>7</v>
@@ -867,7 +867,7 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <v>209</v>
+        <v>300</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -890,16 +890,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="C15">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D15">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="E15">
-        <v>213</v>
+        <v>306</v>
       </c>
       <c r="G15">
         <v>96</v>
@@ -976,7 +976,7 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>214</v>
+        <v>307</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -1008,7 +1008,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -1031,16 +1031,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="C4">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="D4">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="E4">
-        <v>214</v>
+        <v>307</v>
       </c>
       <c r="G4">
         <v>102</v>
@@ -1063,16 +1063,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C5">
         <v>86</v>
       </c>
       <c r="D5">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E5">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G5">
         <v>158</v>
@@ -1104,7 +1104,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -1127,16 +1127,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E7">
-        <v>210</v>
+        <v>301</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1168,7 +1168,7 @@
         <v>5</v>
       </c>
       <c r="E8">
-        <v>214</v>
+        <v>307</v>
       </c>
       <c r="G8">
         <v>33</v>
@@ -1200,7 +1200,7 @@
         <v>88</v>
       </c>
       <c r="E9">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G9">
         <v>49</v>
@@ -1232,7 +1232,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -1264,7 +1264,7 @@
         <v>6</v>
       </c>
       <c r="E11">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -1296,7 +1296,7 @@
         <v>64</v>
       </c>
       <c r="E12">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G12">
         <v>7</v>
@@ -1328,7 +1328,7 @@
         <v>31</v>
       </c>
       <c r="E13">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G13">
         <v>7</v>
@@ -1360,7 +1360,7 @@
         <v>3</v>
       </c>
       <c r="E14">
-        <v>209</v>
+        <v>300</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -1383,16 +1383,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>54</v>
+        <v>105</v>
       </c>
       <c r="C15">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="D15">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="E15">
-        <v>213</v>
+        <v>306</v>
       </c>
       <c r="G15">
         <v>93</v>
@@ -1469,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>214</v>
+        <v>307</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -1501,7 +1501,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -1524,16 +1524,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="C4">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="D4">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="E4">
-        <v>214</v>
+        <v>307</v>
       </c>
       <c r="G4">
         <v>104</v>
@@ -1556,16 +1556,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C5">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D5">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="E5">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G5">
         <v>158</v>
@@ -1597,7 +1597,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -1620,16 +1620,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E7">
-        <v>210</v>
+        <v>301</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -1652,16 +1652,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E8">
-        <v>214</v>
+        <v>307</v>
       </c>
       <c r="G8">
         <v>33</v>
@@ -1684,16 +1684,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C9">
         <v>134</v>
       </c>
       <c r="D9">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E9">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G9">
         <v>51</v>
@@ -1725,7 +1725,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -1757,7 +1757,7 @@
         <v>13</v>
       </c>
       <c r="E11">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -1789,7 +1789,7 @@
         <v>67</v>
       </c>
       <c r="E12">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G12">
         <v>7</v>
@@ -1821,7 +1821,7 @@
         <v>33</v>
       </c>
       <c r="E13">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G13">
         <v>7</v>
@@ -1853,7 +1853,7 @@
         <v>3</v>
       </c>
       <c r="E14">
-        <v>209</v>
+        <v>300</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -1876,16 +1876,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="C15">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="D15">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c r="E15">
-        <v>213</v>
+        <v>306</v>
       </c>
       <c r="G15">
         <v>93</v>
@@ -1962,7 +1962,7 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>214</v>
+        <v>307</v>
       </c>
       <c r="G2">
         <v>69</v>
@@ -1994,7 +1994,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -2017,16 +2017,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>105</v>
+        <v>173</v>
       </c>
       <c r="C4">
-        <v>95</v>
+        <v>163</v>
       </c>
       <c r="D4">
-        <v>104</v>
+        <v>172</v>
       </c>
       <c r="E4">
-        <v>214</v>
+        <v>307</v>
       </c>
       <c r="G4">
         <v>266</v>
@@ -2049,16 +2049,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C5">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="D5">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="E5">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G5">
         <v>418</v>
@@ -2090,7 +2090,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -2113,16 +2113,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E7">
-        <v>210</v>
+        <v>301</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -2145,16 +2145,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="C8">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="D8">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="E8">
-        <v>214</v>
+        <v>307</v>
       </c>
       <c r="G8">
         <v>108</v>
@@ -2177,16 +2177,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C9">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="D9">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="E9">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G9">
         <v>408</v>
@@ -2218,7 +2218,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -2250,7 +2250,7 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -2282,7 +2282,7 @@
         <v>67</v>
       </c>
       <c r="E12">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G12">
         <v>7</v>
@@ -2314,7 +2314,7 @@
         <v>38</v>
       </c>
       <c r="E13">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G13">
         <v>7</v>
@@ -2337,16 +2337,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="E14">
-        <v>209</v>
+        <v>300</v>
       </c>
       <c r="G14">
         <v>5</v>
@@ -2369,16 +2369,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>75</v>
+        <v>138</v>
       </c>
       <c r="C15">
-        <v>68</v>
+        <v>130</v>
       </c>
       <c r="D15">
-        <v>74</v>
+        <v>137</v>
       </c>
       <c r="E15">
-        <v>213</v>
+        <v>306</v>
       </c>
       <c r="G15">
         <v>320</v>
@@ -2449,13 +2449,13 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D2">
         <v>2</v>
       </c>
       <c r="E2">
-        <v>214</v>
+        <v>307</v>
       </c>
       <c r="G2">
         <v>69</v>
@@ -2487,7 +2487,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -2510,16 +2510,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>97</v>
+        <v>166</v>
       </c>
       <c r="C4">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D4">
-        <v>96</v>
+        <v>165</v>
       </c>
       <c r="E4">
-        <v>214</v>
+        <v>307</v>
       </c>
       <c r="G4">
         <v>266</v>
@@ -2542,16 +2542,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C5">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D5">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="E5">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G5">
         <v>418</v>
@@ -2583,7 +2583,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -2606,16 +2606,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E7">
-        <v>210</v>
+        <v>301</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -2638,16 +2638,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="C8">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D8">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="E8">
-        <v>214</v>
+        <v>307</v>
       </c>
       <c r="G8">
         <v>108</v>
@@ -2670,16 +2670,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C9">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D9">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="E9">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G9">
         <v>408</v>
@@ -2711,7 +2711,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -2743,7 +2743,7 @@
         <v>29</v>
       </c>
       <c r="E11">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -2775,7 +2775,7 @@
         <v>67</v>
       </c>
       <c r="E12">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G12">
         <v>7</v>
@@ -2807,7 +2807,7 @@
         <v>38</v>
       </c>
       <c r="E13">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G13">
         <v>7</v>
@@ -2830,16 +2830,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C14">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E14">
-        <v>209</v>
+        <v>300</v>
       </c>
       <c r="G14">
         <v>5</v>
@@ -2862,16 +2862,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>133</v>
+        <v>216</v>
       </c>
       <c r="C15">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D15">
-        <v>132</v>
+        <v>215</v>
       </c>
       <c r="E15">
-        <v>213</v>
+        <v>306</v>
       </c>
       <c r="G15">
         <v>320</v>
@@ -2948,7 +2948,7 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>214</v>
+        <v>307</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -2980,7 +2980,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -3003,16 +3003,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>7</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="E4">
-        <v>214</v>
+        <v>307</v>
       </c>
       <c r="G4">
         <v>62</v>
@@ -3044,7 +3044,7 @@
         <v>50</v>
       </c>
       <c r="E5">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G5">
         <v>37</v>
@@ -3076,7 +3076,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -3099,16 +3099,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>210</v>
+        <v>301</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -3140,7 +3140,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>214</v>
+        <v>307</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -3172,7 +3172,7 @@
         <v>4</v>
       </c>
       <c r="E9">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G9">
         <v>6</v>
@@ -3204,7 +3204,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -3236,7 +3236,7 @@
         <v>7</v>
       </c>
       <c r="E11">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -3268,7 +3268,7 @@
         <v>59</v>
       </c>
       <c r="E12">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G12">
         <v>7</v>
@@ -3300,7 +3300,7 @@
         <v>27</v>
       </c>
       <c r="E13">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G13">
         <v>7</v>
@@ -3332,7 +3332,7 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <v>209</v>
+        <v>300</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -3355,16 +3355,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="C15">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="D15">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="E15">
-        <v>213</v>
+        <v>306</v>
       </c>
       <c r="G15">
         <v>43</v>
@@ -3441,7 +3441,7 @@
         <v>12</v>
       </c>
       <c r="E2">
-        <v>214</v>
+        <v>307</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -3473,7 +3473,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -3505,7 +3505,7 @@
         <v>15</v>
       </c>
       <c r="E4">
-        <v>214</v>
+        <v>307</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -3537,7 +3537,7 @@
         <v>18</v>
       </c>
       <c r="E5">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -3569,7 +3569,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -3601,7 +3601,7 @@
         <v>7</v>
       </c>
       <c r="E7">
-        <v>210</v>
+        <v>301</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -3633,7 +3633,7 @@
         <v>8</v>
       </c>
       <c r="E8">
-        <v>214</v>
+        <v>307</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -3665,7 +3665,7 @@
         <v>8</v>
       </c>
       <c r="E9">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -3697,7 +3697,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -3729,7 +3729,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -3761,7 +3761,7 @@
         <v>38</v>
       </c>
       <c r="E12">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G12">
         <v>5</v>
@@ -3793,7 +3793,7 @@
         <v>2</v>
       </c>
       <c r="E13">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -3825,7 +3825,7 @@
         <v>7</v>
       </c>
       <c r="E14">
-        <v>209</v>
+        <v>300</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -3848,16 +3848,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C15">
         <v>9</v>
       </c>
       <c r="D15">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E15">
-        <v>213</v>
+        <v>306</v>
       </c>
       <c r="G15">
         <v>7</v>
@@ -3934,7 +3934,7 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>214</v>
+        <v>307</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -3966,7 +3966,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -3989,16 +3989,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C4">
         <v>9</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E4">
-        <v>214</v>
+        <v>307</v>
       </c>
       <c r="G4">
         <v>58</v>
@@ -4030,7 +4030,7 @@
         <v>18</v>
       </c>
       <c r="E5">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G5">
         <v>34</v>
@@ -4062,7 +4062,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -4094,7 +4094,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>210</v>
+        <v>301</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -4126,7 +4126,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>214</v>
+        <v>307</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -4158,7 +4158,7 @@
         <v>6</v>
       </c>
       <c r="E9">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G9">
         <v>6</v>
@@ -4190,7 +4190,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -4222,7 +4222,7 @@
         <v>3</v>
       </c>
       <c r="E11">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -4254,7 +4254,7 @@
         <v>59</v>
       </c>
       <c r="E12">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G12">
         <v>7</v>
@@ -4286,7 +4286,7 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G13">
         <v>7</v>
@@ -4318,7 +4318,7 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <v>209</v>
+        <v>300</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -4341,16 +4341,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="C15">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D15">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="E15">
-        <v>213</v>
+        <v>306</v>
       </c>
       <c r="G15">
         <v>40</v>
@@ -4427,7 +4427,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>214</v>
+        <v>307</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -4459,7 +4459,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -4491,7 +4491,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>214</v>
+        <v>307</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -4523,7 +4523,7 @@
         <v>18</v>
       </c>
       <c r="E5">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -4555,7 +4555,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -4587,7 +4587,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>210</v>
+        <v>301</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -4619,7 +4619,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>214</v>
+        <v>307</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -4651,7 +4651,7 @@
         <v>4</v>
       </c>
       <c r="E9">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -4683,7 +4683,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -4715,7 +4715,7 @@
         <v>6</v>
       </c>
       <c r="E11">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -4747,7 +4747,7 @@
         <v>36</v>
       </c>
       <c r="E12">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -4779,7 +4779,7 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -4811,7 +4811,7 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <v>209</v>
+        <v>300</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -4834,16 +4834,16 @@
         <v>23</v>
       </c>
       <c r="B15">
+        <v>17</v>
+      </c>
+      <c r="C15">
         <v>12</v>
       </c>
-      <c r="C15">
-        <v>11</v>
-      </c>
       <c r="D15">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E15">
-        <v>213</v>
+        <v>306</v>
       </c>
       <c r="G15">
         <v>7</v>
@@ -4920,7 +4920,7 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>214</v>
+        <v>307</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -4943,16 +4943,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E3">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -4975,16 +4975,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="C4">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="D4">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="E4">
-        <v>214</v>
+        <v>307</v>
       </c>
       <c r="G4">
         <v>123</v>
@@ -5007,16 +5007,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C5">
         <v>106</v>
       </c>
       <c r="D5">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="E5">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G5">
         <v>164</v>
@@ -5039,16 +5039,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E6">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -5071,16 +5071,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C7">
         <v>5</v>
       </c>
       <c r="D7">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="E7">
-        <v>210</v>
+        <v>301</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -5103,16 +5103,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="E8">
-        <v>214</v>
+        <v>307</v>
       </c>
       <c r="G8">
         <v>63</v>
@@ -5144,7 +5144,7 @@
         <v>135</v>
       </c>
       <c r="E9">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G9">
         <v>60</v>
@@ -5167,16 +5167,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E10">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G10">
         <v>8</v>
@@ -5199,16 +5199,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C11">
         <v>21</v>
       </c>
       <c r="D11">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E11">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G11">
         <v>14</v>
@@ -5231,16 +5231,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C12">
         <v>17</v>
       </c>
       <c r="D12">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E12">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G12">
         <v>7</v>
@@ -5272,7 +5272,7 @@
         <v>122</v>
       </c>
       <c r="E13">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G13">
         <v>7</v>
@@ -5304,7 +5304,7 @@
         <v>3</v>
       </c>
       <c r="E14">
-        <v>209</v>
+        <v>300</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -5327,16 +5327,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>65</v>
+        <v>123</v>
       </c>
       <c r="C15">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="D15">
-        <v>64</v>
+        <v>122</v>
       </c>
       <c r="E15">
-        <v>213</v>
+        <v>306</v>
       </c>
       <c r="G15">
         <v>96</v>
@@ -5404,16 +5404,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D2">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E2">
-        <v>214</v>
+        <v>307</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -5445,7 +5445,7 @@
         <v>3</v>
       </c>
       <c r="E3">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -5468,16 +5468,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C4">
         <v>8</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>214</v>
+        <v>307</v>
       </c>
       <c r="G4">
         <v>52</v>
@@ -5509,7 +5509,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G5">
         <v>34</v>
@@ -5541,7 +5541,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -5564,16 +5564,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E7">
-        <v>210</v>
+        <v>301</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -5596,16 +5596,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E8">
-        <v>214</v>
+        <v>307</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -5637,7 +5637,7 @@
         <v>4</v>
       </c>
       <c r="E9">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G9">
         <v>6</v>
@@ -5669,7 +5669,7 @@
         <v>3</v>
       </c>
       <c r="E10">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -5701,7 +5701,7 @@
         <v>3</v>
       </c>
       <c r="E11">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -5733,7 +5733,7 @@
         <v>4</v>
       </c>
       <c r="E12">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G12">
         <v>7</v>
@@ -5765,7 +5765,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G13">
         <v>7</v>
@@ -5797,7 +5797,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>209</v>
+        <v>300</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -5820,16 +5820,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C15">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D15">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E15">
-        <v>213</v>
+        <v>306</v>
       </c>
       <c r="G15">
         <v>40</v>
@@ -5897,16 +5897,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E2">
-        <v>214</v>
+        <v>307</v>
       </c>
       <c r="G2">
         <v>43</v>
@@ -5938,7 +5938,7 @@
         <v>3</v>
       </c>
       <c r="E3">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G3">
         <v>7</v>
@@ -5961,16 +5961,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C4">
         <v>11</v>
       </c>
       <c r="D4">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>214</v>
+        <v>307</v>
       </c>
       <c r="G4">
         <v>32</v>
@@ -6002,7 +6002,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G5">
         <v>11</v>
@@ -6034,7 +6034,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -6057,16 +6057,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E7">
-        <v>210</v>
+        <v>301</v>
       </c>
       <c r="G7">
         <v>35</v>
@@ -6089,16 +6089,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E8">
-        <v>214</v>
+        <v>307</v>
       </c>
       <c r="G8">
         <v>28</v>
@@ -6130,7 +6130,7 @@
         <v>9</v>
       </c>
       <c r="E9">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G9">
         <v>11</v>
@@ -6162,7 +6162,7 @@
         <v>3</v>
       </c>
       <c r="E10">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G10">
         <v>8</v>
@@ -6194,7 +6194,7 @@
         <v>3</v>
       </c>
       <c r="E11">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G11">
         <v>7</v>
@@ -6226,7 +6226,7 @@
         <v>10</v>
       </c>
       <c r="E12">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G12">
         <v>9</v>
@@ -6258,7 +6258,7 @@
         <v>4</v>
       </c>
       <c r="E13">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G13">
         <v>8</v>
@@ -6290,7 +6290,7 @@
         <v>6</v>
       </c>
       <c r="E14">
-        <v>209</v>
+        <v>300</v>
       </c>
       <c r="G14">
         <v>7</v>
@@ -6313,16 +6313,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C15">
         <v>10</v>
       </c>
       <c r="D15">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E15">
-        <v>213</v>
+        <v>306</v>
       </c>
       <c r="G15">
         <v>47</v>
@@ -6390,16 +6390,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>86</v>
+        <v>158</v>
       </c>
       <c r="C2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2">
-        <v>82</v>
+        <v>154</v>
       </c>
       <c r="E2">
-        <v>214</v>
+        <v>307</v>
       </c>
       <c r="G2">
         <v>222</v>
@@ -6431,7 +6431,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -6454,16 +6454,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>155</v>
+        <v>239</v>
       </c>
       <c r="C4">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="D4">
-        <v>154</v>
+        <v>238</v>
       </c>
       <c r="E4">
-        <v>214</v>
+        <v>307</v>
       </c>
       <c r="G4">
         <v>325</v>
@@ -6486,16 +6486,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C5">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="D5">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="E5">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G5">
         <v>418</v>
@@ -6527,7 +6527,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -6550,16 +6550,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>85</v>
+        <v>157</v>
       </c>
       <c r="C7">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D7">
-        <v>84</v>
+        <v>156</v>
       </c>
       <c r="E7">
-        <v>210</v>
+        <v>301</v>
       </c>
       <c r="G7">
         <v>118</v>
@@ -6582,16 +6582,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>143</v>
+        <v>227</v>
       </c>
       <c r="C8">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D8">
-        <v>142</v>
+        <v>226</v>
       </c>
       <c r="E8">
-        <v>214</v>
+        <v>307</v>
       </c>
       <c r="G8">
         <v>319</v>
@@ -6614,16 +6614,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C9">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="D9">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="E9">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G9">
         <v>418</v>
@@ -6655,7 +6655,7 @@
         <v>2</v>
       </c>
       <c r="E10">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -6678,16 +6678,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C11">
         <v>20</v>
       </c>
       <c r="D11">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="E11">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G11">
         <v>106</v>
@@ -6710,16 +6710,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C12">
         <v>16</v>
       </c>
       <c r="D12">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="E12">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G12">
         <v>115</v>
@@ -6742,16 +6742,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C13">
         <v>15</v>
       </c>
       <c r="D13">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="E13">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G13">
         <v>51</v>
@@ -6774,16 +6774,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>119</v>
+        <v>195</v>
       </c>
       <c r="C14">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D14">
-        <v>118</v>
+        <v>194</v>
       </c>
       <c r="E14">
-        <v>209</v>
+        <v>300</v>
       </c>
       <c r="G14">
         <v>123</v>
@@ -6806,16 +6806,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>146</v>
+        <v>230</v>
       </c>
       <c r="C15">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="D15">
-        <v>145</v>
+        <v>229</v>
       </c>
       <c r="E15">
-        <v>213</v>
+        <v>306</v>
       </c>
       <c r="G15">
         <v>336</v>
@@ -6883,16 +6883,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>86</v>
+        <v>158</v>
       </c>
       <c r="C2">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D2">
-        <v>82</v>
+        <v>154</v>
       </c>
       <c r="E2">
-        <v>214</v>
+        <v>307</v>
       </c>
       <c r="G2">
         <v>222</v>
@@ -6924,7 +6924,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -6947,16 +6947,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>155</v>
+        <v>239</v>
       </c>
       <c r="C4">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="D4">
-        <v>154</v>
+        <v>238</v>
       </c>
       <c r="E4">
-        <v>214</v>
+        <v>307</v>
       </c>
       <c r="G4">
         <v>325</v>
@@ -6979,16 +6979,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C5">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="D5">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="E5">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G5">
         <v>418</v>
@@ -7020,7 +7020,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -7043,16 +7043,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>86</v>
+        <v>158</v>
       </c>
       <c r="C7">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D7">
-        <v>85</v>
+        <v>157</v>
       </c>
       <c r="E7">
-        <v>210</v>
+        <v>301</v>
       </c>
       <c r="G7">
         <v>118</v>
@@ -7075,16 +7075,16 @@
         <v>16</v>
       </c>
       <c r="B8">
+        <v>227</v>
+      </c>
+      <c r="C8">
         <v>143</v>
       </c>
-      <c r="C8">
-        <v>82</v>
-      </c>
       <c r="D8">
-        <v>142</v>
+        <v>226</v>
       </c>
       <c r="E8">
-        <v>214</v>
+        <v>307</v>
       </c>
       <c r="G8">
         <v>319</v>
@@ -7107,16 +7107,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C9">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="D9">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="E9">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G9">
         <v>418</v>
@@ -7148,7 +7148,7 @@
         <v>2</v>
       </c>
       <c r="E10">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -7171,16 +7171,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C11">
         <v>23</v>
       </c>
       <c r="D11">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="E11">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G11">
         <v>106</v>
@@ -7203,16 +7203,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C12">
         <v>19</v>
       </c>
       <c r="D12">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="E12">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G12">
         <v>115</v>
@@ -7235,16 +7235,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C13">
         <v>15</v>
       </c>
       <c r="D13">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="E13">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G13">
         <v>51</v>
@@ -7267,16 +7267,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>116</v>
+        <v>192</v>
       </c>
       <c r="C14">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14">
-        <v>115</v>
+        <v>191</v>
       </c>
       <c r="E14">
-        <v>209</v>
+        <v>300</v>
       </c>
       <c r="G14">
         <v>123</v>
@@ -7299,16 +7299,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>146</v>
+        <v>230</v>
       </c>
       <c r="C15">
-        <v>93</v>
+        <v>166</v>
       </c>
       <c r="D15">
-        <v>145</v>
+        <v>229</v>
       </c>
       <c r="E15">
-        <v>213</v>
+        <v>306</v>
       </c>
       <c r="G15">
         <v>336</v>
@@ -7385,7 +7385,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>214</v>
+        <v>307</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -7417,7 +7417,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -7449,7 +7449,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>214</v>
+        <v>307</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -7481,7 +7481,7 @@
         <v>77</v>
       </c>
       <c r="E5">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -7513,7 +7513,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -7545,7 +7545,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>210</v>
+        <v>301</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -7577,7 +7577,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>214</v>
+        <v>307</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -7609,7 +7609,7 @@
         <v>61</v>
       </c>
       <c r="E9">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -7641,7 +7641,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -7673,7 +7673,7 @@
         <v>6</v>
       </c>
       <c r="E11">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -7705,7 +7705,7 @@
         <v>36</v>
       </c>
       <c r="E12">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G12">
         <v>7</v>
@@ -7737,7 +7737,7 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -7769,7 +7769,7 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <v>209</v>
+        <v>300</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -7792,16 +7792,16 @@
         <v>23</v>
       </c>
       <c r="B15">
+        <v>17</v>
+      </c>
+      <c r="C15">
         <v>12</v>
       </c>
-      <c r="C15">
-        <v>11</v>
-      </c>
       <c r="D15">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E15">
-        <v>213</v>
+        <v>306</v>
       </c>
       <c r="G15">
         <v>7</v>

--- a/experiment_results/worst_case/Elevator/4wise/0.5_worst_case.xlsx
+++ b/experiment_results/worst_case/Elevator/4wise/0.5_worst_case.xlsx
@@ -4418,13 +4418,13 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2">
         <v>307</v>
@@ -4482,13 +4482,13 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>7</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>307</v>
@@ -4514,13 +4514,13 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E5">
         <v>326</v>
@@ -4642,13 +4642,13 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E9">
         <v>326</v>
@@ -4706,13 +4706,13 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <v>326</v>
@@ -4738,13 +4738,13 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="E12">
         <v>326</v>
@@ -4834,13 +4834,13 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15">
         <v>12</v>
       </c>
       <c r="D15">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E15">
         <v>306</v>

--- a/experiment_results/worst_case/Elevator/4wise/0.5_worst_case.xlsx
+++ b/experiment_results/worst_case/Elevator/4wise/0.5_worst_case.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="23">
   <si>
     <t>MUTATED_PROJECT</t>
   </si>
@@ -67,9 +67,6 @@
   </si>
   <si>
     <t>Weight.ElevatorSystem.Elevator.ASRS_6</t>
-  </si>
-  <si>
-    <t>Empty.ElevatorSystem.Environment.AOIU_4</t>
   </si>
   <si>
     <t>Empty.ElevatorSystem.Environment.AOIU_1</t>
@@ -431,7 +428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -570,19 +567,19 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>326</v>
       </c>
       <c r="G5">
-        <v>164</v>
+        <v>3</v>
       </c>
       <c r="H5">
         <v>449</v>
@@ -602,16 +599,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -634,28 +631,28 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E7">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="H7">
         <v>449</v>
       </c>
       <c r="J7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K7">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="L7">
         <v>449</v>
@@ -666,28 +663,28 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E8">
-        <v>307</v>
+        <v>326</v>
       </c>
       <c r="G8">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H8">
         <v>449</v>
       </c>
       <c r="J8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K8">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="L8">
         <v>449</v>
@@ -698,19 +695,19 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>95</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>95</v>
       </c>
       <c r="E9">
         <v>326</v>
       </c>
       <c r="G9">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="H9">
         <v>449</v>
@@ -730,19 +727,19 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="E10">
         <v>326</v>
       </c>
       <c r="G10">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H10">
         <v>449</v>
@@ -762,19 +759,19 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="C11">
         <v>5</v>
       </c>
       <c r="D11">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="E11">
         <v>326</v>
       </c>
       <c r="G11">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="H11">
         <v>449</v>
@@ -794,13 +791,13 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="C12">
         <v>5</v>
       </c>
       <c r="D12">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="E12">
         <v>326</v>
@@ -826,28 +823,28 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="E13">
-        <v>326</v>
+        <v>300</v>
       </c>
       <c r="G13">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H13">
         <v>449</v>
       </c>
       <c r="J13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K13">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="L13">
         <v>449</v>
@@ -858,62 +855,30 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="E14">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G14">
-        <v>4</v>
+        <v>96</v>
       </c>
       <c r="H14">
         <v>449</v>
       </c>
       <c r="J14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K14">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L14">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15">
-        <v>58</v>
-      </c>
-      <c r="C15">
-        <v>12</v>
-      </c>
-      <c r="D15">
-        <v>57</v>
-      </c>
-      <c r="E15">
-        <v>306</v>
-      </c>
-      <c r="G15">
-        <v>96</v>
-      </c>
-      <c r="H15">
-        <v>449</v>
-      </c>
-      <c r="J15">
-        <v>3</v>
-      </c>
-      <c r="K15">
-        <v>26</v>
-      </c>
-      <c r="L15">
         <v>449</v>
       </c>
     </row>
@@ -924,7 +889,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1063,28 +1028,28 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>205</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>205</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>326</v>
       </c>
       <c r="G5">
-        <v>158</v>
+        <v>2</v>
       </c>
       <c r="H5">
         <v>449</v>
       </c>
       <c r="J5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K5">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L5">
         <v>449</v>
@@ -1095,16 +1060,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E6">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -1113,10 +1078,10 @@
         <v>449</v>
       </c>
       <c r="J6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K6">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="L6">
         <v>449</v>
@@ -1127,28 +1092,28 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E7">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="H7">
         <v>449</v>
       </c>
       <c r="J7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="L7">
         <v>449</v>
@@ -1159,28 +1124,28 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>88</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="E8">
-        <v>307</v>
+        <v>326</v>
       </c>
       <c r="G8">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="H8">
         <v>449</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K8">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="L8">
         <v>449</v>
@@ -1191,19 +1156,19 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>88</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>88</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>326</v>
       </c>
       <c r="G9">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="H9">
         <v>449</v>
@@ -1223,19 +1188,19 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E10">
         <v>326</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H10">
         <v>449</v>
@@ -1255,19 +1220,19 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="E11">
         <v>326</v>
       </c>
       <c r="G11">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H11">
         <v>449</v>
@@ -1287,13 +1252,13 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="C12">
         <v>5</v>
       </c>
       <c r="D12">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="E12">
         <v>326</v>
@@ -1319,28 +1284,28 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="E13">
-        <v>326</v>
+        <v>300</v>
       </c>
       <c r="G13">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H13">
         <v>449</v>
       </c>
       <c r="J13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K13">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="L13">
         <v>449</v>
@@ -1351,62 +1316,30 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>105</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>104</v>
       </c>
       <c r="E14">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G14">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="H14">
         <v>449</v>
       </c>
       <c r="J14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K14">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L14">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15">
-        <v>105</v>
-      </c>
-      <c r="C15">
-        <v>58</v>
-      </c>
-      <c r="D15">
-        <v>104</v>
-      </c>
-      <c r="E15">
-        <v>306</v>
-      </c>
-      <c r="G15">
-        <v>93</v>
-      </c>
-      <c r="H15">
-        <v>449</v>
-      </c>
-      <c r="J15">
-        <v>3</v>
-      </c>
-      <c r="K15">
-        <v>26</v>
-      </c>
-      <c r="L15">
         <v>449</v>
       </c>
     </row>
@@ -1417,7 +1350,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1556,28 +1489,28 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>253</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>203</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>253</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>326</v>
       </c>
       <c r="G5">
-        <v>158</v>
+        <v>2</v>
       </c>
       <c r="H5">
         <v>449</v>
       </c>
       <c r="J5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K5">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L5">
         <v>449</v>
@@ -1588,28 +1521,28 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E6">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H6">
         <v>449</v>
       </c>
       <c r="J6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K6">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="L6">
         <v>449</v>
@@ -1620,28 +1553,28 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E7">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="H7">
         <v>449</v>
       </c>
       <c r="J7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K7">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="L7">
         <v>449</v>
@@ -1652,28 +1585,28 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>11</v>
+        <v>205</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>134</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>205</v>
       </c>
       <c r="E8">
-        <v>307</v>
+        <v>326</v>
       </c>
       <c r="G8">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="H8">
         <v>449</v>
       </c>
       <c r="J8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K8">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="L8">
         <v>449</v>
@@ -1684,19 +1617,19 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>205</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>134</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>205</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>326</v>
       </c>
       <c r="G9">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="H9">
         <v>449</v>
@@ -1716,19 +1649,19 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>326</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H10">
         <v>449</v>
@@ -1748,19 +1681,19 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="E11">
         <v>326</v>
       </c>
       <c r="G11">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H11">
         <v>449</v>
@@ -1780,13 +1713,13 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="C12">
         <v>5</v>
       </c>
       <c r="D12">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="E12">
         <v>326</v>
@@ -1812,28 +1745,28 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="E13">
-        <v>326</v>
+        <v>300</v>
       </c>
       <c r="G13">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H13">
         <v>449</v>
       </c>
       <c r="J13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K13">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="L13">
         <v>449</v>
@@ -1844,62 +1777,30 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>120</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>69</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>119</v>
       </c>
       <c r="E14">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G14">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="H14">
         <v>449</v>
       </c>
       <c r="J14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K14">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L14">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15">
-        <v>120</v>
-      </c>
-      <c r="C15">
-        <v>69</v>
-      </c>
-      <c r="D15">
-        <v>119</v>
-      </c>
-      <c r="E15">
-        <v>306</v>
-      </c>
-      <c r="G15">
-        <v>93</v>
-      </c>
-      <c r="H15">
-        <v>449</v>
-      </c>
-      <c r="J15">
-        <v>3</v>
-      </c>
-      <c r="K15">
-        <v>26</v>
-      </c>
-      <c r="L15">
         <v>449</v>
       </c>
     </row>
@@ -1910,7 +1811,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2049,28 +1950,28 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>326</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>326</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>238</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>326</v>
       </c>
       <c r="G5">
-        <v>418</v>
+        <v>2</v>
       </c>
       <c r="H5">
         <v>449</v>
       </c>
       <c r="J5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K5">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L5">
         <v>449</v>
@@ -2081,28 +1982,28 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="E6">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H6">
         <v>449</v>
       </c>
       <c r="J6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K6">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="L6">
         <v>449</v>
@@ -2113,28 +2014,28 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="D7">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="E7">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>108</v>
       </c>
       <c r="H7">
         <v>449</v>
       </c>
       <c r="J7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K7">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="L7">
         <v>449</v>
@@ -2145,28 +2046,28 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>86</v>
+        <v>326</v>
       </c>
       <c r="C8">
-        <v>63</v>
+        <v>326</v>
       </c>
       <c r="D8">
-        <v>85</v>
+        <v>228</v>
       </c>
       <c r="E8">
-        <v>307</v>
+        <v>326</v>
       </c>
       <c r="G8">
-        <v>108</v>
+        <v>408</v>
       </c>
       <c r="H8">
         <v>449</v>
       </c>
       <c r="J8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K8">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="L8">
         <v>449</v>
@@ -2177,19 +2078,19 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>326</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>326</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>228</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>326</v>
       </c>
       <c r="G9">
-        <v>408</v>
+        <v>2</v>
       </c>
       <c r="H9">
         <v>449</v>
@@ -2209,19 +2110,19 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>326</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H10">
         <v>449</v>
@@ -2241,19 +2142,19 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>67</v>
+      </c>
+      <c r="E11">
+        <v>326</v>
+      </c>
+      <c r="G11">
         <v>7</v>
-      </c>
-      <c r="D11">
-        <v>22</v>
-      </c>
-      <c r="E11">
-        <v>326</v>
-      </c>
-      <c r="G11">
-        <v>3</v>
       </c>
       <c r="H11">
         <v>449</v>
@@ -2273,13 +2174,13 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="C12">
         <v>5</v>
       </c>
       <c r="D12">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="E12">
         <v>326</v>
@@ -2305,28 +2206,28 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E13">
-        <v>326</v>
+        <v>300</v>
       </c>
       <c r="G13">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H13">
         <v>449</v>
       </c>
       <c r="J13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K13">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="L13">
         <v>449</v>
@@ -2337,62 +2238,30 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>30</v>
+        <v>138</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>130</v>
       </c>
       <c r="D14">
-        <v>29</v>
+        <v>137</v>
       </c>
       <c r="E14">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G14">
-        <v>5</v>
+        <v>320</v>
       </c>
       <c r="H14">
         <v>449</v>
       </c>
       <c r="J14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K14">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="L14">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15">
-        <v>138</v>
-      </c>
-      <c r="C15">
-        <v>130</v>
-      </c>
-      <c r="D15">
-        <v>137</v>
-      </c>
-      <c r="E15">
-        <v>306</v>
-      </c>
-      <c r="G15">
-        <v>320</v>
-      </c>
-      <c r="H15">
-        <v>449</v>
-      </c>
-      <c r="J15">
-        <v>5</v>
-      </c>
-      <c r="K15">
-        <v>61</v>
-      </c>
-      <c r="L15">
         <v>449</v>
       </c>
     </row>
@@ -2403,7 +2272,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2542,28 +2411,28 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>321</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>244</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>321</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>326</v>
       </c>
       <c r="G5">
-        <v>418</v>
+        <v>2</v>
       </c>
       <c r="H5">
         <v>449</v>
       </c>
       <c r="J5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K5">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L5">
         <v>449</v>
@@ -2574,28 +2443,28 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="E6">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H6">
         <v>449</v>
       </c>
       <c r="J6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K6">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="L6">
         <v>449</v>
@@ -2606,28 +2475,28 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="C7">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="E7">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>108</v>
       </c>
       <c r="H7">
         <v>449</v>
       </c>
       <c r="J7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K7">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="L7">
         <v>449</v>
@@ -2638,28 +2507,28 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>67</v>
+        <v>321</v>
       </c>
       <c r="C8">
-        <v>28</v>
+        <v>267</v>
       </c>
       <c r="D8">
-        <v>66</v>
+        <v>321</v>
       </c>
       <c r="E8">
-        <v>307</v>
+        <v>326</v>
       </c>
       <c r="G8">
-        <v>108</v>
+        <v>408</v>
       </c>
       <c r="H8">
         <v>449</v>
       </c>
       <c r="J8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K8">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="L8">
         <v>449</v>
@@ -2670,19 +2539,19 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>321</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>267</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>321</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>326</v>
       </c>
       <c r="G9">
-        <v>408</v>
+        <v>2</v>
       </c>
       <c r="H9">
         <v>449</v>
@@ -2702,19 +2571,19 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="E10">
         <v>326</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H10">
         <v>449</v>
@@ -2734,19 +2603,19 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="E11">
         <v>326</v>
       </c>
       <c r="G11">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H11">
         <v>449</v>
@@ -2766,13 +2635,13 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="C12">
         <v>5</v>
       </c>
       <c r="D12">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="E12">
         <v>326</v>
@@ -2798,28 +2667,28 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D13">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="E13">
-        <v>326</v>
+        <v>300</v>
       </c>
       <c r="G13">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H13">
         <v>449</v>
       </c>
       <c r="J13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K13">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="L13">
         <v>449</v>
@@ -2830,62 +2699,30 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>7</v>
+        <v>216</v>
       </c>
       <c r="C14">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D14">
-        <v>6</v>
+        <v>215</v>
       </c>
       <c r="E14">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G14">
-        <v>5</v>
+        <v>320</v>
       </c>
       <c r="H14">
         <v>449</v>
       </c>
       <c r="J14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K14">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="L14">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15">
-        <v>216</v>
-      </c>
-      <c r="C15">
-        <v>35</v>
-      </c>
-      <c r="D15">
-        <v>215</v>
-      </c>
-      <c r="E15">
-        <v>306</v>
-      </c>
-      <c r="G15">
-        <v>320</v>
-      </c>
-      <c r="H15">
-        <v>449</v>
-      </c>
-      <c r="J15">
-        <v>5</v>
-      </c>
-      <c r="K15">
-        <v>61</v>
-      </c>
-      <c r="L15">
         <v>449</v>
       </c>
     </row>
@@ -2896,7 +2733,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3035,28 +2872,28 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>326</v>
       </c>
       <c r="G5">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="H5">
         <v>449</v>
       </c>
       <c r="J5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K5">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L5">
         <v>449</v>
@@ -3067,16 +2904,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -3085,10 +2922,10 @@
         <v>449</v>
       </c>
       <c r="J6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K6">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="L6">
         <v>449</v>
@@ -3099,28 +2936,28 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <v>449</v>
       </c>
       <c r="J7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="L7">
         <v>449</v>
@@ -3131,28 +2968,28 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E8">
-        <v>307</v>
+        <v>326</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H8">
         <v>449</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K8">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="L8">
         <v>449</v>
@@ -3163,19 +3000,19 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>326</v>
       </c>
       <c r="G9">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H9">
         <v>449</v>
@@ -3195,19 +3032,19 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E10">
         <v>326</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10">
         <v>449</v>
@@ -3227,19 +3064,19 @@
         <v>19</v>
       </c>
       <c r="B11">
+        <v>59</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>59</v>
+      </c>
+      <c r="E11">
+        <v>326</v>
+      </c>
+      <c r="G11">
         <v>7</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <v>7</v>
-      </c>
-      <c r="E11">
-        <v>326</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
       </c>
       <c r="H11">
         <v>449</v>
@@ -3259,13 +3096,13 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="C12">
         <v>5</v>
       </c>
       <c r="D12">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>326</v>
@@ -3291,28 +3128,28 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="E13">
-        <v>326</v>
+        <v>300</v>
       </c>
       <c r="G13">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H13">
         <v>449</v>
       </c>
       <c r="J13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K13">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="L13">
         <v>449</v>
@@ -3323,62 +3160,30 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="E14">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G14">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="H14">
         <v>449</v>
       </c>
       <c r="J14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K14">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="L14">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15">
-        <v>45</v>
-      </c>
-      <c r="C15">
-        <v>33</v>
-      </c>
-      <c r="D15">
-        <v>44</v>
-      </c>
-      <c r="E15">
-        <v>306</v>
-      </c>
-      <c r="G15">
-        <v>43</v>
-      </c>
-      <c r="H15">
-        <v>449</v>
-      </c>
-      <c r="J15">
-        <v>2</v>
-      </c>
-      <c r="K15">
-        <v>16</v>
-      </c>
-      <c r="L15">
         <v>449</v>
       </c>
     </row>
@@ -3389,7 +3194,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3528,28 +3333,28 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>326</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H5">
         <v>449</v>
       </c>
       <c r="J5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K5">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L5">
         <v>449</v>
@@ -3560,16 +3365,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E6">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -3578,10 +3383,10 @@
         <v>449</v>
       </c>
       <c r="J6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K6">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="L6">
         <v>449</v>
@@ -3592,28 +3397,28 @@
         <v>15</v>
       </c>
       <c r="B7">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>8</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>7</v>
-      </c>
       <c r="E7">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <v>449</v>
       </c>
       <c r="J7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="L7">
         <v>449</v>
@@ -3624,28 +3429,28 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8">
         <v>8</v>
       </c>
       <c r="E8">
-        <v>307</v>
+        <v>326</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H8">
         <v>449</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K8">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="L8">
         <v>449</v>
@@ -3656,19 +3461,19 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>326</v>
       </c>
       <c r="G9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H9">
         <v>449</v>
@@ -3700,7 +3505,7 @@
         <v>326</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10">
         <v>449</v>
@@ -3720,19 +3525,19 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="E11">
         <v>326</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H11">
         <v>449</v>
@@ -3752,19 +3557,19 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="E12">
         <v>326</v>
       </c>
       <c r="G12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H12">
         <v>449</v>
@@ -3784,28 +3589,28 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E13">
-        <v>326</v>
+        <v>300</v>
       </c>
       <c r="G13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H13">
         <v>449</v>
       </c>
       <c r="J13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K13">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="L13">
         <v>449</v>
@@ -3816,62 +3621,30 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D14">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>306</v>
+      </c>
+      <c r="G14">
         <v>7</v>
       </c>
-      <c r="E14">
-        <v>300</v>
-      </c>
-      <c r="G14">
-        <v>3</v>
-      </c>
       <c r="H14">
         <v>449</v>
       </c>
       <c r="J14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K14">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="L14">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15">
-        <v>21</v>
-      </c>
-      <c r="C15">
-        <v>9</v>
-      </c>
-      <c r="D15">
-        <v>20</v>
-      </c>
-      <c r="E15">
-        <v>306</v>
-      </c>
-      <c r="G15">
-        <v>7</v>
-      </c>
-      <c r="H15">
-        <v>449</v>
-      </c>
-      <c r="J15">
-        <v>2</v>
-      </c>
-      <c r="K15">
-        <v>16</v>
-      </c>
-      <c r="L15">
         <v>449</v>
       </c>
     </row>
@@ -3882,7 +3655,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4021,28 +3794,28 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>326</v>
       </c>
       <c r="G5">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="H5">
         <v>449</v>
       </c>
       <c r="J5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K5">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L5">
         <v>449</v>
@@ -4053,7 +3826,7 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -4062,7 +3835,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -4071,10 +3844,10 @@
         <v>449</v>
       </c>
       <c r="J6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K6">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="L6">
         <v>449</v>
@@ -4094,19 +3867,19 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <v>449</v>
       </c>
       <c r="J7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="L7">
         <v>449</v>
@@ -4117,28 +3890,28 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E8">
-        <v>307</v>
+        <v>326</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H8">
         <v>449</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K8">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="L8">
         <v>449</v>
@@ -4149,19 +3922,19 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>326</v>
       </c>
       <c r="G9">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H9">
         <v>449</v>
@@ -4181,19 +3954,19 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E10">
         <v>326</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10">
         <v>449</v>
@@ -4213,19 +3986,19 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="E11">
         <v>326</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H11">
         <v>449</v>
@@ -4245,13 +4018,13 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="C12">
         <v>5</v>
       </c>
       <c r="D12">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="E12">
         <v>326</v>
@@ -4277,28 +4050,28 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="E13">
-        <v>326</v>
+        <v>300</v>
       </c>
       <c r="G13">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H13">
         <v>449</v>
       </c>
       <c r="J13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K13">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="L13">
         <v>449</v>
@@ -4309,62 +4082,30 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="E14">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G14">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="H14">
         <v>449</v>
       </c>
       <c r="J14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K14">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="L14">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15">
-        <v>51</v>
-      </c>
-      <c r="C15">
-        <v>11</v>
-      </c>
-      <c r="D15">
-        <v>50</v>
-      </c>
-      <c r="E15">
-        <v>306</v>
-      </c>
-      <c r="G15">
-        <v>40</v>
-      </c>
-      <c r="H15">
-        <v>449</v>
-      </c>
-      <c r="J15">
-        <v>2</v>
-      </c>
-      <c r="K15">
-        <v>16</v>
-      </c>
-      <c r="L15">
         <v>449</v>
       </c>
     </row>
@@ -4375,7 +4116,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4514,28 +4255,28 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>326</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H5">
         <v>449</v>
       </c>
       <c r="J5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K5">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L5">
         <v>449</v>
@@ -4546,7 +4287,7 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -4555,7 +4296,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -4564,10 +4305,10 @@
         <v>449</v>
       </c>
       <c r="J6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K6">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="L6">
         <v>449</v>
@@ -4587,19 +4328,19 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <v>449</v>
       </c>
       <c r="J7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="L7">
         <v>449</v>
@@ -4610,28 +4351,28 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E8">
-        <v>307</v>
+        <v>326</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H8">
         <v>449</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K8">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="L8">
         <v>449</v>
@@ -4642,19 +4383,19 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>326</v>
       </c>
       <c r="G9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H9">
         <v>449</v>
@@ -4686,7 +4427,7 @@
         <v>326</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10">
         <v>449</v>
@@ -4706,19 +4447,19 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E11">
         <v>326</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11">
         <v>449</v>
@@ -4738,13 +4479,13 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E12">
         <v>326</v>
@@ -4770,28 +4511,28 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13">
-        <v>326</v>
+        <v>300</v>
       </c>
       <c r="G13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H13">
         <v>449</v>
       </c>
       <c r="J13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K13">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="L13">
         <v>449</v>
@@ -4802,62 +4543,30 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E14">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G14">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H14">
         <v>449</v>
       </c>
       <c r="J14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K14">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="L14">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15">
-        <v>16</v>
-      </c>
-      <c r="C15">
-        <v>12</v>
-      </c>
-      <c r="D15">
-        <v>15</v>
-      </c>
-      <c r="E15">
-        <v>306</v>
-      </c>
-      <c r="G15">
-        <v>7</v>
-      </c>
-      <c r="H15">
-        <v>449</v>
-      </c>
-      <c r="J15">
-        <v>2</v>
-      </c>
-      <c r="K15">
-        <v>16</v>
-      </c>
-      <c r="L15">
         <v>449</v>
       </c>
     </row>
@@ -4868,7 +4577,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5007,19 +4716,19 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>226</v>
+        <v>19</v>
       </c>
       <c r="C5">
-        <v>106</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>226</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>326</v>
       </c>
       <c r="G5">
-        <v>164</v>
+        <v>3</v>
       </c>
       <c r="H5">
         <v>449</v>
@@ -5039,16 +4748,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="E6">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -5071,28 +4780,28 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E7">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="H7">
         <v>449</v>
       </c>
       <c r="J7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K7">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="L7">
         <v>449</v>
@@ -5103,28 +4812,28 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>35</v>
+        <v>135</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="D8">
-        <v>34</v>
+        <v>135</v>
       </c>
       <c r="E8">
-        <v>307</v>
+        <v>326</v>
       </c>
       <c r="G8">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H8">
         <v>449</v>
       </c>
       <c r="J8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K8">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="L8">
         <v>449</v>
@@ -5135,19 +4844,19 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="C9">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="E9">
         <v>326</v>
       </c>
       <c r="G9">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="H9">
         <v>449</v>
@@ -5167,19 +4876,19 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D10">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="E10">
         <v>326</v>
       </c>
       <c r="G10">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H10">
         <v>449</v>
@@ -5199,19 +4908,19 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="C11">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D11">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="E11">
         <v>326</v>
       </c>
       <c r="G11">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="H11">
         <v>449</v>
@@ -5231,13 +4940,13 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>163</v>
+        <v>122</v>
       </c>
       <c r="C12">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D12">
-        <v>163</v>
+        <v>122</v>
       </c>
       <c r="E12">
         <v>326</v>
@@ -5263,28 +4972,28 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>122</v>
+        <v>3</v>
       </c>
       <c r="E13">
-        <v>326</v>
+        <v>300</v>
       </c>
       <c r="G13">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H13">
         <v>449</v>
       </c>
       <c r="J13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K13">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="L13">
         <v>449</v>
@@ -5295,62 +5004,30 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>123</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="E14">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G14">
-        <v>4</v>
+        <v>96</v>
       </c>
       <c r="H14">
         <v>449</v>
       </c>
       <c r="J14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K14">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L14">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15">
-        <v>123</v>
-      </c>
-      <c r="C15">
-        <v>75</v>
-      </c>
-      <c r="D15">
-        <v>122</v>
-      </c>
-      <c r="E15">
-        <v>306</v>
-      </c>
-      <c r="G15">
-        <v>96</v>
-      </c>
-      <c r="H15">
-        <v>449</v>
-      </c>
-      <c r="J15">
-        <v>3</v>
-      </c>
-      <c r="K15">
-        <v>26</v>
-      </c>
-      <c r="L15">
         <v>449</v>
       </c>
     </row>
@@ -5361,7 +5038,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5500,28 +5177,28 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>326</v>
       </c>
       <c r="G5">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="H5">
         <v>449</v>
       </c>
       <c r="J5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K5">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L5">
         <v>449</v>
@@ -5532,16 +5209,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E6">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -5550,10 +5227,10 @@
         <v>449</v>
       </c>
       <c r="J6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K6">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="L6">
         <v>449</v>
@@ -5564,28 +5241,28 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E7">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <v>449</v>
       </c>
       <c r="J7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="L7">
         <v>449</v>
@@ -5596,28 +5273,28 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E8">
-        <v>307</v>
+        <v>326</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H8">
         <v>449</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K8">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="L8">
         <v>449</v>
@@ -5628,19 +5305,19 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E9">
         <v>326</v>
       </c>
       <c r="G9">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H9">
         <v>449</v>
@@ -5672,7 +5349,7 @@
         <v>326</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10">
         <v>449</v>
@@ -5692,19 +5369,19 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E11">
         <v>326</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H11">
         <v>449</v>
@@ -5724,13 +5401,13 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E12">
         <v>326</v>
@@ -5756,28 +5433,28 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>326</v>
+        <v>300</v>
       </c>
       <c r="G13">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H13">
         <v>449</v>
       </c>
       <c r="J13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K13">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="L13">
         <v>449</v>
@@ -5788,62 +5465,30 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="E14">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G14">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="H14">
         <v>449</v>
       </c>
       <c r="J14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K14">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="L14">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15">
-        <v>51</v>
-      </c>
-      <c r="C15">
-        <v>14</v>
-      </c>
-      <c r="D15">
-        <v>26</v>
-      </c>
-      <c r="E15">
-        <v>306</v>
-      </c>
-      <c r="G15">
-        <v>40</v>
-      </c>
-      <c r="H15">
-        <v>449</v>
-      </c>
-      <c r="J15">
-        <v>2</v>
-      </c>
-      <c r="K15">
-        <v>16</v>
-      </c>
-      <c r="L15">
         <v>449</v>
       </c>
     </row>
@@ -5854,7 +5499,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5993,28 +5638,28 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>326</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H5">
         <v>449</v>
       </c>
       <c r="J5">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K5">
-        <v>388</v>
+        <v>371</v>
       </c>
       <c r="L5">
         <v>449</v>
@@ -6025,28 +5670,28 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E6">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="H6">
         <v>449</v>
       </c>
       <c r="J6">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K6">
-        <v>371</v>
+        <v>396</v>
       </c>
       <c r="L6">
         <v>449</v>
@@ -6057,28 +5702,28 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="G7">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="H7">
         <v>449</v>
       </c>
       <c r="J7">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K7">
-        <v>396</v>
+        <v>374</v>
       </c>
       <c r="L7">
         <v>449</v>
@@ -6089,28 +5734,28 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E8">
-        <v>307</v>
+        <v>326</v>
       </c>
       <c r="G8">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="H8">
         <v>449</v>
       </c>
       <c r="J8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K8">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="L8">
         <v>449</v>
@@ -6121,19 +5766,19 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E9">
         <v>326</v>
       </c>
       <c r="G9">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H9">
         <v>449</v>
@@ -6165,7 +5810,7 @@
         <v>326</v>
       </c>
       <c r="G10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H10">
         <v>449</v>
@@ -6185,19 +5830,19 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E11">
         <v>326</v>
       </c>
       <c r="G11">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H11">
         <v>449</v>
@@ -6217,19 +5862,19 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
         <v>4</v>
       </c>
-      <c r="D12">
-        <v>10</v>
-      </c>
       <c r="E12">
         <v>326</v>
       </c>
       <c r="G12">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H12">
         <v>449</v>
@@ -6249,28 +5894,28 @@
         <v>21</v>
       </c>
       <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+      <c r="E13">
+        <v>300</v>
+      </c>
+      <c r="G13">
         <v>7</v>
       </c>
-      <c r="C13">
-        <v>3</v>
-      </c>
-      <c r="D13">
-        <v>4</v>
-      </c>
-      <c r="E13">
-        <v>326</v>
-      </c>
-      <c r="G13">
-        <v>8</v>
-      </c>
       <c r="H13">
         <v>449</v>
       </c>
       <c r="J13">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K13">
-        <v>388</v>
+        <v>404</v>
       </c>
       <c r="L13">
         <v>449</v>
@@ -6281,62 +5926,30 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D14">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E14">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G14">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="H14">
         <v>449</v>
       </c>
       <c r="J14">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K14">
-        <v>404</v>
+        <v>382</v>
       </c>
       <c r="L14">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15">
-        <v>50</v>
-      </c>
-      <c r="C15">
-        <v>10</v>
-      </c>
-      <c r="D15">
-        <v>25</v>
-      </c>
-      <c r="E15">
-        <v>306</v>
-      </c>
-      <c r="G15">
-        <v>47</v>
-      </c>
-      <c r="H15">
-        <v>449</v>
-      </c>
-      <c r="J15">
-        <v>10</v>
-      </c>
-      <c r="K15">
-        <v>382</v>
-      </c>
-      <c r="L15">
         <v>449</v>
       </c>
     </row>
@@ -6347,7 +5960,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6486,28 +6099,28 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>321</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>314</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>321</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>326</v>
       </c>
       <c r="G5">
-        <v>418</v>
+        <v>2</v>
       </c>
       <c r="H5">
         <v>449</v>
       </c>
       <c r="J5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K5">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L5">
         <v>449</v>
@@ -6518,28 +6131,28 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>157</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>156</v>
       </c>
       <c r="E6">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>118</v>
       </c>
       <c r="H6">
         <v>449</v>
       </c>
       <c r="J6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K6">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="L6">
         <v>449</v>
@@ -6550,28 +6163,28 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>157</v>
+        <v>227</v>
       </c>
       <c r="C7">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D7">
-        <v>156</v>
+        <v>226</v>
       </c>
       <c r="E7">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="G7">
-        <v>118</v>
+        <v>319</v>
       </c>
       <c r="H7">
         <v>449</v>
       </c>
       <c r="J7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K7">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="L7">
         <v>449</v>
@@ -6582,28 +6195,28 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>227</v>
+        <v>321</v>
       </c>
       <c r="C8">
-        <v>34</v>
+        <v>310</v>
       </c>
       <c r="D8">
-        <v>226</v>
+        <v>321</v>
       </c>
       <c r="E8">
-        <v>307</v>
+        <v>326</v>
       </c>
       <c r="G8">
-        <v>319</v>
+        <v>418</v>
       </c>
       <c r="H8">
         <v>449</v>
       </c>
       <c r="J8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K8">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="L8">
         <v>449</v>
@@ -6614,19 +6227,19 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>321</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>310</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>321</v>
+        <v>2</v>
       </c>
       <c r="E9">
         <v>326</v>
       </c>
       <c r="G9">
-        <v>418</v>
+        <v>2</v>
       </c>
       <c r="H9">
         <v>449</v>
@@ -6646,19 +6259,19 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>310</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>310</v>
       </c>
       <c r="E10">
         <v>326</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>106</v>
       </c>
       <c r="H10">
         <v>449</v>
@@ -6678,19 +6291,19 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>310</v>
+        <v>253</v>
       </c>
       <c r="C11">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D11">
-        <v>310</v>
+        <v>253</v>
       </c>
       <c r="E11">
         <v>326</v>
       </c>
       <c r="G11">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="H11">
         <v>449</v>
@@ -6710,19 +6323,19 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>253</v>
+        <v>219</v>
       </c>
       <c r="C12">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12">
-        <v>253</v>
+        <v>219</v>
       </c>
       <c r="E12">
         <v>326</v>
       </c>
       <c r="G12">
-        <v>115</v>
+        <v>51</v>
       </c>
       <c r="H12">
         <v>449</v>
@@ -6742,28 +6355,28 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="C13">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D13">
-        <v>219</v>
+        <v>194</v>
       </c>
       <c r="E13">
-        <v>326</v>
+        <v>300</v>
       </c>
       <c r="G13">
-        <v>51</v>
+        <v>123</v>
       </c>
       <c r="H13">
         <v>449</v>
       </c>
       <c r="J13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K13">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="L13">
         <v>449</v>
@@ -6774,62 +6387,30 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>195</v>
+        <v>230</v>
       </c>
       <c r="C14">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="D14">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="E14">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G14">
-        <v>123</v>
+        <v>336</v>
       </c>
       <c r="H14">
         <v>449</v>
       </c>
       <c r="J14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K14">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="L14">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15">
-        <v>230</v>
-      </c>
-      <c r="C15">
-        <v>74</v>
-      </c>
-      <c r="D15">
-        <v>229</v>
-      </c>
-      <c r="E15">
-        <v>306</v>
-      </c>
-      <c r="G15">
-        <v>336</v>
-      </c>
-      <c r="H15">
-        <v>449</v>
-      </c>
-      <c r="J15">
-        <v>5</v>
-      </c>
-      <c r="K15">
-        <v>61</v>
-      </c>
-      <c r="L15">
         <v>449</v>
       </c>
     </row>
@@ -6840,7 +6421,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6979,28 +6560,28 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>321</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>321</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>321</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>326</v>
       </c>
       <c r="G5">
-        <v>418</v>
+        <v>2</v>
       </c>
       <c r="H5">
         <v>449</v>
       </c>
       <c r="J5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K5">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L5">
         <v>449</v>
@@ -7011,28 +6592,28 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>158</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>157</v>
       </c>
       <c r="E6">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>118</v>
       </c>
       <c r="H6">
         <v>449</v>
       </c>
       <c r="J6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K6">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="L6">
         <v>449</v>
@@ -7043,28 +6624,28 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>158</v>
+        <v>227</v>
       </c>
       <c r="C7">
-        <v>19</v>
+        <v>143</v>
       </c>
       <c r="D7">
-        <v>157</v>
+        <v>226</v>
       </c>
       <c r="E7">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="G7">
-        <v>118</v>
+        <v>319</v>
       </c>
       <c r="H7">
         <v>449</v>
       </c>
       <c r="J7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K7">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="L7">
         <v>449</v>
@@ -7075,28 +6656,28 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>227</v>
+        <v>321</v>
       </c>
       <c r="C8">
-        <v>143</v>
+        <v>321</v>
       </c>
       <c r="D8">
-        <v>226</v>
+        <v>321</v>
       </c>
       <c r="E8">
-        <v>307</v>
+        <v>326</v>
       </c>
       <c r="G8">
-        <v>319</v>
+        <v>418</v>
       </c>
       <c r="H8">
         <v>449</v>
       </c>
       <c r="J8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K8">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="L8">
         <v>449</v>
@@ -7107,19 +6688,19 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>321</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>321</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>321</v>
+        <v>2</v>
       </c>
       <c r="E9">
         <v>326</v>
       </c>
       <c r="G9">
-        <v>418</v>
+        <v>2</v>
       </c>
       <c r="H9">
         <v>449</v>
@@ -7139,19 +6720,19 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>308</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>308</v>
       </c>
       <c r="E10">
         <v>326</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>106</v>
       </c>
       <c r="H10">
         <v>449</v>
@@ -7171,19 +6752,19 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>308</v>
+        <v>254</v>
       </c>
       <c r="C11">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D11">
-        <v>308</v>
+        <v>254</v>
       </c>
       <c r="E11">
         <v>326</v>
       </c>
       <c r="G11">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="H11">
         <v>449</v>
@@ -7203,19 +6784,19 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="C12">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D12">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="E12">
         <v>326</v>
       </c>
       <c r="G12">
-        <v>115</v>
+        <v>51</v>
       </c>
       <c r="H12">
         <v>449</v>
@@ -7235,28 +6816,28 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>219</v>
+        <v>192</v>
       </c>
       <c r="C13">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D13">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="E13">
-        <v>326</v>
+        <v>300</v>
       </c>
       <c r="G13">
-        <v>51</v>
+        <v>123</v>
       </c>
       <c r="H13">
         <v>449</v>
       </c>
       <c r="J13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K13">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="L13">
         <v>449</v>
@@ -7267,62 +6848,30 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>192</v>
+        <v>230</v>
       </c>
       <c r="C14">
-        <v>27</v>
+        <v>166</v>
       </c>
       <c r="D14">
-        <v>191</v>
+        <v>229</v>
       </c>
       <c r="E14">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G14">
-        <v>123</v>
+        <v>336</v>
       </c>
       <c r="H14">
         <v>449</v>
       </c>
       <c r="J14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K14">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="L14">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15">
-        <v>230</v>
-      </c>
-      <c r="C15">
-        <v>166</v>
-      </c>
-      <c r="D15">
-        <v>229</v>
-      </c>
-      <c r="E15">
-        <v>306</v>
-      </c>
-      <c r="G15">
-        <v>336</v>
-      </c>
-      <c r="H15">
-        <v>449</v>
-      </c>
-      <c r="J15">
-        <v>5</v>
-      </c>
-      <c r="K15">
-        <v>61</v>
-      </c>
-      <c r="L15">
         <v>449</v>
       </c>
     </row>
@@ -7333,7 +6882,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7472,19 +7021,19 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>77</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>77</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>326</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H5">
         <v>449</v>
@@ -7493,7 +7042,7 @@
         <v>4</v>
       </c>
       <c r="K5">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L5">
         <v>449</v>
@@ -7504,7 +7053,7 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -7513,7 +7062,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -7525,7 +7074,7 @@
         <v>4</v>
       </c>
       <c r="K6">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="L6">
         <v>449</v>
@@ -7545,16 +7094,16 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <v>449</v>
       </c>
       <c r="J7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K7">
         <v>32</v>
@@ -7568,25 +7117,25 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="E8">
-        <v>307</v>
+        <v>326</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H8">
         <v>449</v>
       </c>
       <c r="J8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K8">
         <v>32</v>
@@ -7600,19 +7149,19 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>326</v>
       </c>
       <c r="G9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H9">
         <v>449</v>
@@ -7632,19 +7181,19 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E10">
         <v>326</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10">
         <v>449</v>
@@ -7664,19 +7213,19 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="E11">
         <v>326</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H11">
         <v>449</v>
@@ -7696,19 +7245,19 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="E12">
         <v>326</v>
       </c>
       <c r="G12">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H12">
         <v>449</v>
@@ -7728,28 +7277,28 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13">
-        <v>326</v>
+        <v>300</v>
       </c>
       <c r="G13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H13">
         <v>449</v>
       </c>
       <c r="J13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K13">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="L13">
         <v>449</v>
@@ -7760,62 +7309,30 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E14">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G14">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H14">
         <v>449</v>
       </c>
       <c r="J14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K14">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="L14">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15">
-        <v>17</v>
-      </c>
-      <c r="C15">
-        <v>12</v>
-      </c>
-      <c r="D15">
-        <v>16</v>
-      </c>
-      <c r="E15">
-        <v>306</v>
-      </c>
-      <c r="G15">
-        <v>7</v>
-      </c>
-      <c r="H15">
-        <v>449</v>
-      </c>
-      <c r="J15">
-        <v>6</v>
-      </c>
-      <c r="K15">
-        <v>48</v>
-      </c>
-      <c r="L15">
         <v>449</v>
       </c>
     </row>

--- a/experiment_results/worst_case/Elevator/4wise/0.5_worst_case.xlsx
+++ b/experiment_results/worst_case/Elevator/4wise/0.5_worst_case.xlsx
@@ -480,7 +480,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>307</v>
+        <v>119</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -512,7 +512,7 @@
         <v>25</v>
       </c>
       <c r="E3">
-        <v>326</v>
+        <v>56</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -544,7 +544,7 @@
         <v>4</v>
       </c>
       <c r="E4">
-        <v>307</v>
+        <v>263</v>
       </c>
       <c r="G4">
         <v>123</v>
@@ -576,7 +576,7 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>326</v>
+        <v>59</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -608,7 +608,7 @@
         <v>2</v>
       </c>
       <c r="E6">
-        <v>301</v>
+        <v>264</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -640,7 +640,7 @@
         <v>5</v>
       </c>
       <c r="E7">
-        <v>307</v>
+        <v>266</v>
       </c>
       <c r="G7">
         <v>63</v>
@@ -672,7 +672,7 @@
         <v>3</v>
       </c>
       <c r="E8">
-        <v>326</v>
+        <v>257</v>
       </c>
       <c r="G8">
         <v>60</v>
@@ -704,7 +704,7 @@
         <v>95</v>
       </c>
       <c r="E9">
-        <v>326</v>
+        <v>225</v>
       </c>
       <c r="G9">
         <v>8</v>
@@ -736,7 +736,7 @@
         <v>131</v>
       </c>
       <c r="E10">
-        <v>326</v>
+        <v>220</v>
       </c>
       <c r="G10">
         <v>14</v>
@@ -768,7 +768,7 @@
         <v>86</v>
       </c>
       <c r="E11">
-        <v>326</v>
+        <v>285</v>
       </c>
       <c r="G11">
         <v>7</v>
@@ -800,7 +800,7 @@
         <v>53</v>
       </c>
       <c r="E12">
-        <v>326</v>
+        <v>286</v>
       </c>
       <c r="G12">
         <v>7</v>
@@ -832,7 +832,7 @@
         <v>2</v>
       </c>
       <c r="E13">
-        <v>300</v>
+        <v>189</v>
       </c>
       <c r="G13">
         <v>4</v>
@@ -864,7 +864,7 @@
         <v>57</v>
       </c>
       <c r="E14">
-        <v>306</v>
+        <v>255</v>
       </c>
       <c r="G14">
         <v>96</v>
@@ -941,7 +941,7 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>307</v>
+        <v>119</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -973,7 +973,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>326</v>
+        <v>56</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -1005,7 +1005,7 @@
         <v>72</v>
       </c>
       <c r="E4">
-        <v>307</v>
+        <v>263</v>
       </c>
       <c r="G4">
         <v>102</v>
@@ -1037,7 +1037,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>326</v>
+        <v>59</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -1069,7 +1069,7 @@
         <v>15</v>
       </c>
       <c r="E6">
-        <v>301</v>
+        <v>264</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -1101,7 +1101,7 @@
         <v>5</v>
       </c>
       <c r="E7">
-        <v>307</v>
+        <v>266</v>
       </c>
       <c r="G7">
         <v>33</v>
@@ -1124,16 +1124,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C8">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D8">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E8">
-        <v>326</v>
+        <v>257</v>
       </c>
       <c r="G8">
         <v>49</v>
@@ -1165,7 +1165,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>326</v>
+        <v>225</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -1197,7 +1197,7 @@
         <v>6</v>
       </c>
       <c r="E10">
-        <v>326</v>
+        <v>220</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -1229,7 +1229,7 @@
         <v>64</v>
       </c>
       <c r="E11">
-        <v>326</v>
+        <v>285</v>
       </c>
       <c r="G11">
         <v>7</v>
@@ -1261,7 +1261,7 @@
         <v>31</v>
       </c>
       <c r="E12">
-        <v>326</v>
+        <v>286</v>
       </c>
       <c r="G12">
         <v>7</v>
@@ -1293,7 +1293,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>300</v>
+        <v>189</v>
       </c>
       <c r="G13">
         <v>4</v>
@@ -1325,7 +1325,7 @@
         <v>104</v>
       </c>
       <c r="E14">
-        <v>306</v>
+        <v>255</v>
       </c>
       <c r="G14">
         <v>93</v>
@@ -1402,7 +1402,7 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>307</v>
+        <v>119</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -1434,7 +1434,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>326</v>
+        <v>56</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -1466,7 +1466,7 @@
         <v>72</v>
       </c>
       <c r="E4">
-        <v>307</v>
+        <v>263</v>
       </c>
       <c r="G4">
         <v>104</v>
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>326</v>
+        <v>59</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -1530,7 +1530,7 @@
         <v>13</v>
       </c>
       <c r="E6">
-        <v>301</v>
+        <v>264</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -1562,7 +1562,7 @@
         <v>10</v>
       </c>
       <c r="E7">
-        <v>307</v>
+        <v>266</v>
       </c>
       <c r="G7">
         <v>33</v>
@@ -1585,16 +1585,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="C8">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="D8">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="E8">
-        <v>326</v>
+        <v>257</v>
       </c>
       <c r="G8">
         <v>51</v>
@@ -1626,7 +1626,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>326</v>
+        <v>225</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -1658,7 +1658,7 @@
         <v>13</v>
       </c>
       <c r="E10">
-        <v>326</v>
+        <v>220</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -1690,7 +1690,7 @@
         <v>67</v>
       </c>
       <c r="E11">
-        <v>326</v>
+        <v>285</v>
       </c>
       <c r="G11">
         <v>7</v>
@@ -1722,7 +1722,7 @@
         <v>33</v>
       </c>
       <c r="E12">
-        <v>326</v>
+        <v>286</v>
       </c>
       <c r="G12">
         <v>7</v>
@@ -1754,7 +1754,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>300</v>
+        <v>189</v>
       </c>
       <c r="G13">
         <v>4</v>
@@ -1786,7 +1786,7 @@
         <v>119</v>
       </c>
       <c r="E14">
-        <v>306</v>
+        <v>255</v>
       </c>
       <c r="G14">
         <v>93</v>
@@ -1863,7 +1863,7 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>307</v>
+        <v>119</v>
       </c>
       <c r="G2">
         <v>69</v>
@@ -1895,7 +1895,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>326</v>
+        <v>56</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -1927,7 +1927,7 @@
         <v>172</v>
       </c>
       <c r="E4">
-        <v>307</v>
+        <v>263</v>
       </c>
       <c r="G4">
         <v>266</v>
@@ -1959,7 +1959,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>326</v>
+        <v>59</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -1991,7 +1991,7 @@
         <v>29</v>
       </c>
       <c r="E6">
-        <v>301</v>
+        <v>264</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -2023,7 +2023,7 @@
         <v>85</v>
       </c>
       <c r="E7">
-        <v>307</v>
+        <v>266</v>
       </c>
       <c r="G7">
         <v>108</v>
@@ -2046,16 +2046,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>326</v>
+        <v>257</v>
       </c>
       <c r="C8">
-        <v>326</v>
+        <v>257</v>
       </c>
       <c r="D8">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="E8">
-        <v>326</v>
+        <v>257</v>
       </c>
       <c r="G8">
         <v>408</v>
@@ -2087,7 +2087,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>326</v>
+        <v>225</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -2119,7 +2119,7 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>326</v>
+        <v>220</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -2151,7 +2151,7 @@
         <v>67</v>
       </c>
       <c r="E11">
-        <v>326</v>
+        <v>285</v>
       </c>
       <c r="G11">
         <v>7</v>
@@ -2183,7 +2183,7 @@
         <v>38</v>
       </c>
       <c r="E12">
-        <v>326</v>
+        <v>286</v>
       </c>
       <c r="G12">
         <v>7</v>
@@ -2215,7 +2215,7 @@
         <v>29</v>
       </c>
       <c r="E13">
-        <v>300</v>
+        <v>189</v>
       </c>
       <c r="G13">
         <v>5</v>
@@ -2247,7 +2247,7 @@
         <v>137</v>
       </c>
       <c r="E14">
-        <v>306</v>
+        <v>255</v>
       </c>
       <c r="G14">
         <v>320</v>
@@ -2318,13 +2318,13 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <v>2</v>
       </c>
       <c r="E2">
-        <v>307</v>
+        <v>119</v>
       </c>
       <c r="G2">
         <v>69</v>
@@ -2356,7 +2356,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>326</v>
+        <v>56</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -2379,16 +2379,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C4">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="D4">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E4">
-        <v>307</v>
+        <v>263</v>
       </c>
       <c r="G4">
         <v>266</v>
@@ -2420,7 +2420,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>326</v>
+        <v>59</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -2446,13 +2446,13 @@
         <v>30</v>
       </c>
       <c r="C6">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>29</v>
       </c>
       <c r="E6">
-        <v>301</v>
+        <v>264</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -2478,13 +2478,13 @@
         <v>67</v>
       </c>
       <c r="C7">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D7">
         <v>66</v>
       </c>
       <c r="E7">
-        <v>307</v>
+        <v>266</v>
       </c>
       <c r="G7">
         <v>108</v>
@@ -2507,16 +2507,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>321</v>
+        <v>252</v>
       </c>
       <c r="C8">
-        <v>267</v>
+        <v>200</v>
       </c>
       <c r="D8">
-        <v>321</v>
+        <v>252</v>
       </c>
       <c r="E8">
-        <v>326</v>
+        <v>257</v>
       </c>
       <c r="G8">
         <v>408</v>
@@ -2548,7 +2548,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>326</v>
+        <v>225</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -2580,7 +2580,7 @@
         <v>29</v>
       </c>
       <c r="E10">
-        <v>326</v>
+        <v>220</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -2612,7 +2612,7 @@
         <v>67</v>
       </c>
       <c r="E11">
-        <v>326</v>
+        <v>285</v>
       </c>
       <c r="G11">
         <v>7</v>
@@ -2644,7 +2644,7 @@
         <v>38</v>
       </c>
       <c r="E12">
-        <v>326</v>
+        <v>286</v>
       </c>
       <c r="G12">
         <v>7</v>
@@ -2670,13 +2670,13 @@
         <v>7</v>
       </c>
       <c r="C13">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D13">
         <v>6</v>
       </c>
       <c r="E13">
-        <v>300</v>
+        <v>189</v>
       </c>
       <c r="G13">
         <v>5</v>
@@ -2699,16 +2699,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>216</v>
+        <v>166</v>
       </c>
       <c r="C14">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D14">
-        <v>215</v>
+        <v>165</v>
       </c>
       <c r="E14">
-        <v>306</v>
+        <v>255</v>
       </c>
       <c r="G14">
         <v>320</v>
@@ -2785,7 +2785,7 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>307</v>
+        <v>119</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -2817,7 +2817,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>326</v>
+        <v>56</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -2849,7 +2849,7 @@
         <v>34</v>
       </c>
       <c r="E4">
-        <v>307</v>
+        <v>263</v>
       </c>
       <c r="G4">
         <v>62</v>
@@ -2881,7 +2881,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>326</v>
+        <v>59</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -2913,7 +2913,7 @@
         <v>2</v>
       </c>
       <c r="E6">
-        <v>301</v>
+        <v>264</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -2945,7 +2945,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>307</v>
+        <v>266</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -2968,16 +2968,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8">
         <v>3</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E8">
-        <v>326</v>
+        <v>257</v>
       </c>
       <c r="G8">
         <v>6</v>
@@ -3009,7 +3009,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>326</v>
+        <v>225</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -3041,7 +3041,7 @@
         <v>7</v>
       </c>
       <c r="E10">
-        <v>326</v>
+        <v>220</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -3073,7 +3073,7 @@
         <v>59</v>
       </c>
       <c r="E11">
-        <v>326</v>
+        <v>285</v>
       </c>
       <c r="G11">
         <v>7</v>
@@ -3105,7 +3105,7 @@
         <v>27</v>
       </c>
       <c r="E12">
-        <v>326</v>
+        <v>286</v>
       </c>
       <c r="G12">
         <v>7</v>
@@ -3137,7 +3137,7 @@
         <v>2</v>
       </c>
       <c r="E13">
-        <v>300</v>
+        <v>189</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -3169,7 +3169,7 @@
         <v>44</v>
       </c>
       <c r="E14">
-        <v>306</v>
+        <v>255</v>
       </c>
       <c r="G14">
         <v>43</v>
@@ -3246,7 +3246,7 @@
         <v>12</v>
       </c>
       <c r="E2">
-        <v>307</v>
+        <v>119</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -3278,7 +3278,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>326</v>
+        <v>56</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -3310,7 +3310,7 @@
         <v>15</v>
       </c>
       <c r="E4">
-        <v>307</v>
+        <v>263</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -3342,7 +3342,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>326</v>
+        <v>59</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -3374,7 +3374,7 @@
         <v>7</v>
       </c>
       <c r="E6">
-        <v>301</v>
+        <v>264</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -3406,7 +3406,7 @@
         <v>8</v>
       </c>
       <c r="E7">
-        <v>307</v>
+        <v>266</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -3438,7 +3438,7 @@
         <v>8</v>
       </c>
       <c r="E8">
-        <v>326</v>
+        <v>257</v>
       </c>
       <c r="G8">
         <v>5</v>
@@ -3470,7 +3470,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>326</v>
+        <v>225</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -3502,7 +3502,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>326</v>
+        <v>220</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -3534,7 +3534,7 @@
         <v>38</v>
       </c>
       <c r="E11">
-        <v>326</v>
+        <v>285</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -3566,7 +3566,7 @@
         <v>2</v>
       </c>
       <c r="E12">
-        <v>326</v>
+        <v>286</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -3598,7 +3598,7 @@
         <v>7</v>
       </c>
       <c r="E13">
-        <v>300</v>
+        <v>189</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -3630,7 +3630,7 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>306</v>
+        <v>255</v>
       </c>
       <c r="G14">
         <v>7</v>
@@ -3707,7 +3707,7 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>307</v>
+        <v>119</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -3739,7 +3739,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>326</v>
+        <v>56</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -3771,7 +3771,7 @@
         <v>18</v>
       </c>
       <c r="E4">
-        <v>307</v>
+        <v>263</v>
       </c>
       <c r="G4">
         <v>58</v>
@@ -3803,7 +3803,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>326</v>
+        <v>59</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -3835,7 +3835,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>301</v>
+        <v>264</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -3867,7 +3867,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>307</v>
+        <v>266</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -3899,7 +3899,7 @@
         <v>6</v>
       </c>
       <c r="E8">
-        <v>326</v>
+        <v>257</v>
       </c>
       <c r="G8">
         <v>6</v>
@@ -3931,7 +3931,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>326</v>
+        <v>225</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -3963,7 +3963,7 @@
         <v>3</v>
       </c>
       <c r="E10">
-        <v>326</v>
+        <v>220</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -3995,7 +3995,7 @@
         <v>59</v>
       </c>
       <c r="E11">
-        <v>326</v>
+        <v>285</v>
       </c>
       <c r="G11">
         <v>7</v>
@@ -4027,7 +4027,7 @@
         <v>25</v>
       </c>
       <c r="E12">
-        <v>326</v>
+        <v>286</v>
       </c>
       <c r="G12">
         <v>7</v>
@@ -4059,7 +4059,7 @@
         <v>2</v>
       </c>
       <c r="E13">
-        <v>300</v>
+        <v>189</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -4091,7 +4091,7 @@
         <v>50</v>
       </c>
       <c r="E14">
-        <v>306</v>
+        <v>255</v>
       </c>
       <c r="G14">
         <v>40</v>
@@ -4168,7 +4168,7 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>307</v>
+        <v>119</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -4200,7 +4200,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>326</v>
+        <v>56</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -4232,7 +4232,7 @@
         <v>11</v>
       </c>
       <c r="E4">
-        <v>307</v>
+        <v>263</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -4264,7 +4264,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>326</v>
+        <v>59</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -4296,7 +4296,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>301</v>
+        <v>264</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -4328,7 +4328,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>307</v>
+        <v>266</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -4360,7 +4360,7 @@
         <v>3</v>
       </c>
       <c r="E8">
-        <v>326</v>
+        <v>257</v>
       </c>
       <c r="G8">
         <v>5</v>
@@ -4392,7 +4392,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>326</v>
+        <v>225</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -4424,7 +4424,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>326</v>
+        <v>220</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -4456,7 +4456,7 @@
         <v>6</v>
       </c>
       <c r="E11">
-        <v>326</v>
+        <v>285</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -4488,7 +4488,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>326</v>
+        <v>286</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -4520,7 +4520,7 @@
         <v>2</v>
       </c>
       <c r="E13">
-        <v>300</v>
+        <v>189</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -4552,7 +4552,7 @@
         <v>15</v>
       </c>
       <c r="E14">
-        <v>306</v>
+        <v>255</v>
       </c>
       <c r="G14">
         <v>7</v>
@@ -4629,7 +4629,7 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>307</v>
+        <v>119</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -4661,7 +4661,7 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>326</v>
+        <v>56</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -4693,7 +4693,7 @@
         <v>85</v>
       </c>
       <c r="E4">
-        <v>307</v>
+        <v>263</v>
       </c>
       <c r="G4">
         <v>123</v>
@@ -4725,7 +4725,7 @@
         <v>19</v>
       </c>
       <c r="E5">
-        <v>326</v>
+        <v>59</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -4757,7 +4757,7 @@
         <v>37</v>
       </c>
       <c r="E6">
-        <v>301</v>
+        <v>264</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -4789,7 +4789,7 @@
         <v>34</v>
       </c>
       <c r="E7">
-        <v>307</v>
+        <v>266</v>
       </c>
       <c r="G7">
         <v>63</v>
@@ -4812,16 +4812,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="C8">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D8">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="E8">
-        <v>326</v>
+        <v>257</v>
       </c>
       <c r="G8">
         <v>60</v>
@@ -4853,7 +4853,7 @@
         <v>96</v>
       </c>
       <c r="E9">
-        <v>326</v>
+        <v>225</v>
       </c>
       <c r="G9">
         <v>8</v>
@@ -4885,7 +4885,7 @@
         <v>132</v>
       </c>
       <c r="E10">
-        <v>326</v>
+        <v>220</v>
       </c>
       <c r="G10">
         <v>14</v>
@@ -4917,7 +4917,7 @@
         <v>163</v>
       </c>
       <c r="E11">
-        <v>326</v>
+        <v>285</v>
       </c>
       <c r="G11">
         <v>7</v>
@@ -4949,7 +4949,7 @@
         <v>122</v>
       </c>
       <c r="E12">
-        <v>326</v>
+        <v>286</v>
       </c>
       <c r="G12">
         <v>7</v>
@@ -4981,7 +4981,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>300</v>
+        <v>189</v>
       </c>
       <c r="G13">
         <v>4</v>
@@ -5013,7 +5013,7 @@
         <v>122</v>
       </c>
       <c r="E14">
-        <v>306</v>
+        <v>255</v>
       </c>
       <c r="G14">
         <v>96</v>
@@ -5090,7 +5090,7 @@
         <v>28</v>
       </c>
       <c r="E2">
-        <v>307</v>
+        <v>119</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -5122,7 +5122,7 @@
         <v>3</v>
       </c>
       <c r="E3">
-        <v>326</v>
+        <v>56</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -5154,7 +5154,7 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>307</v>
+        <v>263</v>
       </c>
       <c r="G4">
         <v>52</v>
@@ -5186,7 +5186,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>326</v>
+        <v>59</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -5218,7 +5218,7 @@
         <v>5</v>
       </c>
       <c r="E6">
-        <v>301</v>
+        <v>264</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -5250,7 +5250,7 @@
         <v>10</v>
       </c>
       <c r="E7">
-        <v>307</v>
+        <v>266</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -5282,7 +5282,7 @@
         <v>4</v>
       </c>
       <c r="E8">
-        <v>326</v>
+        <v>257</v>
       </c>
       <c r="G8">
         <v>6</v>
@@ -5314,7 +5314,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>326</v>
+        <v>225</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -5346,7 +5346,7 @@
         <v>3</v>
       </c>
       <c r="E10">
-        <v>326</v>
+        <v>220</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -5378,7 +5378,7 @@
         <v>4</v>
       </c>
       <c r="E11">
-        <v>326</v>
+        <v>285</v>
       </c>
       <c r="G11">
         <v>7</v>
@@ -5410,7 +5410,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>326</v>
+        <v>286</v>
       </c>
       <c r="G12">
         <v>7</v>
@@ -5442,7 +5442,7 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>300</v>
+        <v>189</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -5474,7 +5474,7 @@
         <v>26</v>
       </c>
       <c r="E14">
-        <v>306</v>
+        <v>255</v>
       </c>
       <c r="G14">
         <v>40</v>
@@ -5551,7 +5551,7 @@
         <v>19</v>
       </c>
       <c r="E2">
-        <v>307</v>
+        <v>119</v>
       </c>
       <c r="G2">
         <v>43</v>
@@ -5583,7 +5583,7 @@
         <v>3</v>
       </c>
       <c r="E3">
-        <v>326</v>
+        <v>56</v>
       </c>
       <c r="G3">
         <v>7</v>
@@ -5615,7 +5615,7 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>307</v>
+        <v>263</v>
       </c>
       <c r="G4">
         <v>32</v>
@@ -5647,7 +5647,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>326</v>
+        <v>59</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -5679,7 +5679,7 @@
         <v>14</v>
       </c>
       <c r="E6">
-        <v>301</v>
+        <v>264</v>
       </c>
       <c r="G6">
         <v>35</v>
@@ -5711,7 +5711,7 @@
         <v>15</v>
       </c>
       <c r="E7">
-        <v>307</v>
+        <v>266</v>
       </c>
       <c r="G7">
         <v>28</v>
@@ -5743,7 +5743,7 @@
         <v>9</v>
       </c>
       <c r="E8">
-        <v>326</v>
+        <v>257</v>
       </c>
       <c r="G8">
         <v>11</v>
@@ -5775,7 +5775,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>326</v>
+        <v>225</v>
       </c>
       <c r="G9">
         <v>8</v>
@@ -5807,7 +5807,7 @@
         <v>3</v>
       </c>
       <c r="E10">
-        <v>326</v>
+        <v>220</v>
       </c>
       <c r="G10">
         <v>7</v>
@@ -5839,7 +5839,7 @@
         <v>10</v>
       </c>
       <c r="E11">
-        <v>326</v>
+        <v>285</v>
       </c>
       <c r="G11">
         <v>9</v>
@@ -5871,7 +5871,7 @@
         <v>4</v>
       </c>
       <c r="E12">
-        <v>326</v>
+        <v>286</v>
       </c>
       <c r="G12">
         <v>8</v>
@@ -5903,7 +5903,7 @@
         <v>6</v>
       </c>
       <c r="E13">
-        <v>300</v>
+        <v>189</v>
       </c>
       <c r="G13">
         <v>7</v>
@@ -5935,7 +5935,7 @@
         <v>25</v>
       </c>
       <c r="E14">
-        <v>306</v>
+        <v>255</v>
       </c>
       <c r="G14">
         <v>47</v>
@@ -6003,16 +6003,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>158</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D2">
-        <v>154</v>
+        <v>5</v>
       </c>
       <c r="E2">
-        <v>307</v>
+        <v>119</v>
       </c>
       <c r="G2">
         <v>222</v>
@@ -6044,7 +6044,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>326</v>
+        <v>56</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -6067,16 +6067,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>239</v>
+        <v>195</v>
       </c>
       <c r="C4">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>238</v>
+        <v>194</v>
       </c>
       <c r="E4">
-        <v>307</v>
+        <v>263</v>
       </c>
       <c r="G4">
         <v>325</v>
@@ -6108,7 +6108,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>326</v>
+        <v>59</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -6131,16 +6131,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>157</v>
+        <v>122</v>
       </c>
       <c r="C6">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>156</v>
+        <v>121</v>
       </c>
       <c r="E6">
-        <v>301</v>
+        <v>264</v>
       </c>
       <c r="G6">
         <v>118</v>
@@ -6163,16 +6163,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>227</v>
+        <v>186</v>
       </c>
       <c r="C7">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="D7">
-        <v>226</v>
+        <v>185</v>
       </c>
       <c r="E7">
-        <v>307</v>
+        <v>266</v>
       </c>
       <c r="G7">
         <v>319</v>
@@ -6195,16 +6195,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>321</v>
+        <v>252</v>
       </c>
       <c r="C8">
-        <v>310</v>
+        <v>241</v>
       </c>
       <c r="D8">
-        <v>321</v>
+        <v>252</v>
       </c>
       <c r="E8">
-        <v>326</v>
+        <v>257</v>
       </c>
       <c r="G8">
         <v>418</v>
@@ -6236,7 +6236,7 @@
         <v>2</v>
       </c>
       <c r="E9">
-        <v>326</v>
+        <v>225</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -6259,16 +6259,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>310</v>
+        <v>206</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D10">
-        <v>310</v>
+        <v>206</v>
       </c>
       <c r="E10">
-        <v>326</v>
+        <v>220</v>
       </c>
       <c r="G10">
         <v>106</v>
@@ -6291,16 +6291,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>253</v>
+        <v>213</v>
       </c>
       <c r="C11">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D11">
-        <v>253</v>
+        <v>213</v>
       </c>
       <c r="E11">
-        <v>326</v>
+        <v>285</v>
       </c>
       <c r="G11">
         <v>115</v>
@@ -6323,16 +6323,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>219</v>
+        <v>182</v>
       </c>
       <c r="C12">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D12">
-        <v>219</v>
+        <v>182</v>
       </c>
       <c r="E12">
-        <v>326</v>
+        <v>286</v>
       </c>
       <c r="G12">
         <v>51</v>
@@ -6355,16 +6355,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>195</v>
+        <v>101</v>
       </c>
       <c r="C13">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D13">
-        <v>194</v>
+        <v>100</v>
       </c>
       <c r="E13">
-        <v>300</v>
+        <v>189</v>
       </c>
       <c r="G13">
         <v>123</v>
@@ -6387,16 +6387,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>230</v>
+        <v>179</v>
       </c>
       <c r="C14">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="D14">
-        <v>229</v>
+        <v>178</v>
       </c>
       <c r="E14">
-        <v>306</v>
+        <v>255</v>
       </c>
       <c r="G14">
         <v>336</v>
@@ -6464,16 +6464,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>158</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="D2">
-        <v>154</v>
+        <v>5</v>
       </c>
       <c r="E2">
-        <v>307</v>
+        <v>119</v>
       </c>
       <c r="G2">
         <v>222</v>
@@ -6505,7 +6505,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>326</v>
+        <v>56</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -6528,16 +6528,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>239</v>
+        <v>195</v>
       </c>
       <c r="C4">
-        <v>160</v>
+        <v>118</v>
       </c>
       <c r="D4">
-        <v>238</v>
+        <v>194</v>
       </c>
       <c r="E4">
-        <v>307</v>
+        <v>263</v>
       </c>
       <c r="G4">
         <v>325</v>
@@ -6569,7 +6569,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>326</v>
+        <v>59</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -6592,16 +6592,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>158</v>
+        <v>122</v>
       </c>
       <c r="C6">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="E6">
-        <v>301</v>
+        <v>264</v>
       </c>
       <c r="G6">
         <v>118</v>
@@ -6624,16 +6624,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>227</v>
+        <v>186</v>
       </c>
       <c r="C7">
-        <v>143</v>
+        <v>102</v>
       </c>
       <c r="D7">
-        <v>226</v>
+        <v>185</v>
       </c>
       <c r="E7">
-        <v>307</v>
+        <v>266</v>
       </c>
       <c r="G7">
         <v>319</v>
@@ -6656,16 +6656,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>321</v>
+        <v>252</v>
       </c>
       <c r="C8">
-        <v>321</v>
+        <v>252</v>
       </c>
       <c r="D8">
-        <v>321</v>
+        <v>252</v>
       </c>
       <c r="E8">
-        <v>326</v>
+        <v>257</v>
       </c>
       <c r="G8">
         <v>418</v>
@@ -6697,7 +6697,7 @@
         <v>2</v>
       </c>
       <c r="E9">
-        <v>326</v>
+        <v>225</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -6720,16 +6720,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>308</v>
+        <v>205</v>
       </c>
       <c r="C10">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D10">
-        <v>308</v>
+        <v>205</v>
       </c>
       <c r="E10">
-        <v>326</v>
+        <v>220</v>
       </c>
       <c r="G10">
         <v>106</v>
@@ -6752,16 +6752,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>254</v>
+        <v>214</v>
       </c>
       <c r="C11">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D11">
-        <v>254</v>
+        <v>214</v>
       </c>
       <c r="E11">
-        <v>326</v>
+        <v>285</v>
       </c>
       <c r="G11">
         <v>115</v>
@@ -6784,16 +6784,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>219</v>
+        <v>182</v>
       </c>
       <c r="C12">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D12">
-        <v>219</v>
+        <v>182</v>
       </c>
       <c r="E12">
-        <v>326</v>
+        <v>286</v>
       </c>
       <c r="G12">
         <v>51</v>
@@ -6816,16 +6816,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>192</v>
+        <v>101</v>
       </c>
       <c r="C13">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D13">
-        <v>191</v>
+        <v>100</v>
       </c>
       <c r="E13">
-        <v>300</v>
+        <v>189</v>
       </c>
       <c r="G13">
         <v>123</v>
@@ -6848,16 +6848,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>230</v>
+        <v>179</v>
       </c>
       <c r="C14">
-        <v>166</v>
+        <v>116</v>
       </c>
       <c r="D14">
-        <v>229</v>
+        <v>178</v>
       </c>
       <c r="E14">
-        <v>306</v>
+        <v>255</v>
       </c>
       <c r="G14">
         <v>336</v>
@@ -6934,7 +6934,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>307</v>
+        <v>119</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -6966,7 +6966,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>326</v>
+        <v>56</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -6998,7 +6998,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>307</v>
+        <v>263</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -7030,7 +7030,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>326</v>
+        <v>59</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -7062,7 +7062,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>301</v>
+        <v>264</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -7094,7 +7094,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>307</v>
+        <v>266</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -7117,16 +7117,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
       <c r="D8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E8">
-        <v>326</v>
+        <v>257</v>
       </c>
       <c r="G8">
         <v>5</v>
@@ -7158,7 +7158,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>326</v>
+        <v>225</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -7190,7 +7190,7 @@
         <v>6</v>
       </c>
       <c r="E10">
-        <v>326</v>
+        <v>220</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -7222,7 +7222,7 @@
         <v>36</v>
       </c>
       <c r="E11">
-        <v>326</v>
+        <v>285</v>
       </c>
       <c r="G11">
         <v>7</v>
@@ -7254,7 +7254,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>326</v>
+        <v>286</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -7286,7 +7286,7 @@
         <v>2</v>
       </c>
       <c r="E13">
-        <v>300</v>
+        <v>189</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -7318,7 +7318,7 @@
         <v>16</v>
       </c>
       <c r="E14">
-        <v>306</v>
+        <v>255</v>
       </c>
       <c r="G14">
         <v>7</v>

--- a/experiment_results/worst_case/Elevator/4wise/0.5_worst_case.xlsx
+++ b/experiment_results/worst_case/Elevator/4wise/0.5_worst_case.xlsx
@@ -22,13 +22,15 @@
     <sheet name="rogot1" sheetId="13" r:id="rId13"/>
     <sheet name="geometric_mean" sheetId="14" r:id="rId14"/>
     <sheet name="m2" sheetId="15" r:id="rId15"/>
+    <sheet name="wong1" sheetId="16" r:id="rId16"/>
+    <sheet name="sokal" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="23">
   <si>
     <t>MUTATED_PROJECT</t>
   </si>
@@ -1457,13 +1459,13 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C4">
         <v>58</v>
       </c>
       <c r="D4">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E4">
         <v>263</v>
@@ -1553,13 +1555,13 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E7">
         <v>266</v>
@@ -1585,13 +1587,13 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>191</v>
+        <v>90</v>
       </c>
       <c r="C8">
-        <v>121</v>
+        <v>47</v>
       </c>
       <c r="D8">
-        <v>191</v>
+        <v>90</v>
       </c>
       <c r="E8">
         <v>257</v>
@@ -1777,13 +1779,13 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C14">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D14">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="E14">
         <v>255</v>
@@ -1918,13 +1920,13 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="C4">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D4">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="E4">
         <v>263</v>
@@ -2014,13 +2016,13 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="C7">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="D7">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="E7">
         <v>266</v>
@@ -2046,13 +2048,13 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D8">
-        <v>200</v>
+        <v>252</v>
       </c>
       <c r="E8">
         <v>257</v>
@@ -2110,13 +2112,13 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C10">
         <v>7</v>
       </c>
       <c r="D10">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E10">
         <v>220</v>
@@ -2206,13 +2208,13 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="E13">
         <v>189</v>
@@ -2238,13 +2240,13 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>138</v>
+        <v>166</v>
       </c>
       <c r="C14">
-        <v>130</v>
+        <v>186</v>
       </c>
       <c r="D14">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="E14">
         <v>255</v>
@@ -3653,6 +3655,928 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>52</v>
+      </c>
+      <c r="C2">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>28</v>
+      </c>
+      <c r="E2">
+        <v>119</v>
+      </c>
+      <c r="G2">
+        <v>43</v>
+      </c>
+      <c r="H2">
+        <v>449</v>
+      </c>
+      <c r="J2">
+        <v>9</v>
+      </c>
+      <c r="K2">
+        <v>374</v>
+      </c>
+      <c r="L2">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>56</v>
+      </c>
+      <c r="G3">
+        <v>7</v>
+      </c>
+      <c r="H3">
+        <v>449</v>
+      </c>
+      <c r="J3">
+        <v>9</v>
+      </c>
+      <c r="K3">
+        <v>371</v>
+      </c>
+      <c r="L3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>42</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>24</v>
+      </c>
+      <c r="E4">
+        <v>263</v>
+      </c>
+      <c r="G4">
+        <v>32</v>
+      </c>
+      <c r="H4">
+        <v>449</v>
+      </c>
+      <c r="J4">
+        <v>9</v>
+      </c>
+      <c r="K4">
+        <v>374</v>
+      </c>
+      <c r="L4">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>59</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>449</v>
+      </c>
+      <c r="J5">
+        <v>9</v>
+      </c>
+      <c r="K5">
+        <v>371</v>
+      </c>
+      <c r="L5">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>26</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>264</v>
+      </c>
+      <c r="G6">
+        <v>35</v>
+      </c>
+      <c r="H6">
+        <v>449</v>
+      </c>
+      <c r="J6">
+        <v>12</v>
+      </c>
+      <c r="K6">
+        <v>396</v>
+      </c>
+      <c r="L6">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>32</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>266</v>
+      </c>
+      <c r="G7">
+        <v>28</v>
+      </c>
+      <c r="H7">
+        <v>449</v>
+      </c>
+      <c r="J7">
+        <v>9</v>
+      </c>
+      <c r="K7">
+        <v>374</v>
+      </c>
+      <c r="L7">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>257</v>
+      </c>
+      <c r="G8">
+        <v>11</v>
+      </c>
+      <c r="H8">
+        <v>449</v>
+      </c>
+      <c r="J8">
+        <v>11</v>
+      </c>
+      <c r="K8">
+        <v>388</v>
+      </c>
+      <c r="L8">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>225</v>
+      </c>
+      <c r="G9">
+        <v>8</v>
+      </c>
+      <c r="H9">
+        <v>449</v>
+      </c>
+      <c r="J9">
+        <v>11</v>
+      </c>
+      <c r="K9">
+        <v>388</v>
+      </c>
+      <c r="L9">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>220</v>
+      </c>
+      <c r="G10">
+        <v>7</v>
+      </c>
+      <c r="H10">
+        <v>449</v>
+      </c>
+      <c r="J10">
+        <v>11</v>
+      </c>
+      <c r="K10">
+        <v>388</v>
+      </c>
+      <c r="L10">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>285</v>
+      </c>
+      <c r="G11">
+        <v>9</v>
+      </c>
+      <c r="H11">
+        <v>449</v>
+      </c>
+      <c r="J11">
+        <v>11</v>
+      </c>
+      <c r="K11">
+        <v>388</v>
+      </c>
+      <c r="L11">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>286</v>
+      </c>
+      <c r="G12">
+        <v>8</v>
+      </c>
+      <c r="H12">
+        <v>449</v>
+      </c>
+      <c r="J12">
+        <v>11</v>
+      </c>
+      <c r="K12">
+        <v>388</v>
+      </c>
+      <c r="L12">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>189</v>
+      </c>
+      <c r="G13">
+        <v>7</v>
+      </c>
+      <c r="H13">
+        <v>449</v>
+      </c>
+      <c r="J13">
+        <v>13</v>
+      </c>
+      <c r="K13">
+        <v>404</v>
+      </c>
+      <c r="L13">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>51</v>
+      </c>
+      <c r="C14">
+        <v>14</v>
+      </c>
+      <c r="D14">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>255</v>
+      </c>
+      <c r="G14">
+        <v>47</v>
+      </c>
+      <c r="H14">
+        <v>449</v>
+      </c>
+      <c r="J14">
+        <v>10</v>
+      </c>
+      <c r="K14">
+        <v>382</v>
+      </c>
+      <c r="L14">
+        <v>449</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>119</v>
+      </c>
+      <c r="G2">
+        <v>222</v>
+      </c>
+      <c r="H2">
+        <v>449</v>
+      </c>
+      <c r="J2">
+        <v>6</v>
+      </c>
+      <c r="K2">
+        <v>57</v>
+      </c>
+      <c r="L2">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>56</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>449</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>12</v>
+      </c>
+      <c r="L3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>195</v>
+      </c>
+      <c r="C4">
+        <v>18</v>
+      </c>
+      <c r="D4">
+        <v>194</v>
+      </c>
+      <c r="E4">
+        <v>263</v>
+      </c>
+      <c r="G4">
+        <v>325</v>
+      </c>
+      <c r="H4">
+        <v>449</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <v>35</v>
+      </c>
+      <c r="L4">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>59</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>449</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>12</v>
+      </c>
+      <c r="L5">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>122</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>121</v>
+      </c>
+      <c r="E6">
+        <v>264</v>
+      </c>
+      <c r="G6">
+        <v>118</v>
+      </c>
+      <c r="H6">
+        <v>449</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <v>22</v>
+      </c>
+      <c r="L6">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>188</v>
+      </c>
+      <c r="C7">
+        <v>11</v>
+      </c>
+      <c r="D7">
+        <v>187</v>
+      </c>
+      <c r="E7">
+        <v>266</v>
+      </c>
+      <c r="G7">
+        <v>319</v>
+      </c>
+      <c r="H7">
+        <v>449</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>16</v>
+      </c>
+      <c r="L7">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>252</v>
+      </c>
+      <c r="C8">
+        <v>209</v>
+      </c>
+      <c r="D8">
+        <v>252</v>
+      </c>
+      <c r="E8">
+        <v>257</v>
+      </c>
+      <c r="G8">
+        <v>418</v>
+      </c>
+      <c r="H8">
+        <v>449</v>
+      </c>
+      <c r="J8">
+        <v>3</v>
+      </c>
+      <c r="K8">
+        <v>22</v>
+      </c>
+      <c r="L8">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>225</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>449</v>
+      </c>
+      <c r="J9">
+        <v>3</v>
+      </c>
+      <c r="K9">
+        <v>22</v>
+      </c>
+      <c r="L9">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>208</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>208</v>
+      </c>
+      <c r="E10">
+        <v>220</v>
+      </c>
+      <c r="G10">
+        <v>106</v>
+      </c>
+      <c r="H10">
+        <v>449</v>
+      </c>
+      <c r="J10">
+        <v>3</v>
+      </c>
+      <c r="K10">
+        <v>22</v>
+      </c>
+      <c r="L10">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>213</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>213</v>
+      </c>
+      <c r="E11">
+        <v>285</v>
+      </c>
+      <c r="G11">
+        <v>115</v>
+      </c>
+      <c r="H11">
+        <v>449</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
+      <c r="K11">
+        <v>22</v>
+      </c>
+      <c r="L11">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>184</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>184</v>
+      </c>
+      <c r="E12">
+        <v>286</v>
+      </c>
+      <c r="G12">
+        <v>51</v>
+      </c>
+      <c r="H12">
+        <v>449</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
+      </c>
+      <c r="K12">
+        <v>22</v>
+      </c>
+      <c r="L12">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>101</v>
+      </c>
+      <c r="C13">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>100</v>
+      </c>
+      <c r="E13">
+        <v>189</v>
+      </c>
+      <c r="G13">
+        <v>123</v>
+      </c>
+      <c r="H13">
+        <v>449</v>
+      </c>
+      <c r="J13">
+        <v>4</v>
+      </c>
+      <c r="K13">
+        <v>30</v>
+      </c>
+      <c r="L13">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>179</v>
+      </c>
+      <c r="C14">
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <v>178</v>
+      </c>
+      <c r="E14">
+        <v>255</v>
+      </c>
+      <c r="G14">
+        <v>336</v>
+      </c>
+      <c r="H14">
+        <v>449</v>
+      </c>
+      <c r="J14">
+        <v>5</v>
+      </c>
+      <c r="K14">
+        <v>61</v>
+      </c>
+      <c r="L14">
+        <v>449</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L14"/>
@@ -4546,7 +5470,7 @@
         <v>16</v>
       </c>
       <c r="C14">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D14">
         <v>15</v>
@@ -5081,13 +6005,13 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="E2">
         <v>119</v>
@@ -5113,13 +6037,13 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E3">
         <v>56</v>
@@ -5145,13 +6069,13 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D4">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="E4">
         <v>263</v>
@@ -5209,13 +6133,13 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E6">
         <v>264</v>
@@ -5241,13 +6165,13 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>266</v>
@@ -5273,10 +6197,10 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8">
         <v>4</v>
@@ -5305,13 +6229,13 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>225</v>
@@ -5337,13 +6261,13 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <v>220</v>
@@ -5369,13 +6293,13 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="D11">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="E11">
         <v>285</v>
@@ -5401,13 +6325,13 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>286</v>
@@ -5433,13 +6357,13 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13">
         <v>189</v>
@@ -5465,13 +6389,13 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>51</v>
+        <v>127</v>
       </c>
       <c r="C14">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="D14">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="E14">
         <v>255</v>

--- a/experiment_results/worst_case/Elevator/4wise/0.5_worst_case.xlsx
+++ b/experiment_results/worst_case/Elevator/4wise/0.5_worst_case.xlsx
@@ -473,16 +473,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E2">
-        <v>119</v>
+        <v>449</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -505,16 +505,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="E3">
-        <v>56</v>
+        <v>449</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -537,16 +537,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E4">
-        <v>263</v>
+        <v>449</v>
       </c>
       <c r="G4">
         <v>123</v>
@@ -569,16 +569,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="E5">
-        <v>59</v>
+        <v>449</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -601,16 +601,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
       <c r="E6">
-        <v>264</v>
+        <v>449</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -633,16 +633,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>266</v>
+        <v>449</v>
       </c>
       <c r="G7">
         <v>63</v>
@@ -668,13 +668,13 @@
         <v>3</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8">
         <v>3</v>
       </c>
       <c r="E8">
-        <v>257</v>
+        <v>449</v>
       </c>
       <c r="G8">
         <v>60</v>
@@ -697,16 +697,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>95</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9">
-        <v>95</v>
+        <v>4</v>
       </c>
       <c r="E9">
-        <v>225</v>
+        <v>449</v>
       </c>
       <c r="G9">
         <v>8</v>
@@ -729,16 +729,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>131</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D10">
-        <v>131</v>
+        <v>9</v>
       </c>
       <c r="E10">
-        <v>220</v>
+        <v>449</v>
       </c>
       <c r="G10">
         <v>14</v>
@@ -761,16 +761,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>86</v>
+        <v>7</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D11">
-        <v>86</v>
+        <v>7</v>
       </c>
       <c r="E11">
-        <v>285</v>
+        <v>449</v>
       </c>
       <c r="G11">
         <v>7</v>
@@ -793,16 +793,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D12">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="E12">
-        <v>286</v>
+        <v>449</v>
       </c>
       <c r="G12">
         <v>7</v>
@@ -825,16 +825,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13">
         <v>2</v>
       </c>
       <c r="E13">
-        <v>189</v>
+        <v>449</v>
       </c>
       <c r="G13">
         <v>4</v>
@@ -857,16 +857,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="C14">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D14">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="E14">
-        <v>255</v>
+        <v>449</v>
       </c>
       <c r="G14">
         <v>96</v>
@@ -934,16 +934,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>119</v>
+        <v>449</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -966,16 +966,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>56</v>
+        <v>449</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -998,16 +998,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="C4">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="D4">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="E4">
-        <v>263</v>
+        <v>449</v>
       </c>
       <c r="G4">
         <v>102</v>
@@ -1030,16 +1030,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>59</v>
+        <v>449</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -1062,16 +1062,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>264</v>
+        <v>449</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -1094,16 +1094,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>266</v>
+        <v>449</v>
       </c>
       <c r="G7">
         <v>33</v>
@@ -1126,16 +1126,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="C8">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D8">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="E8">
-        <v>257</v>
+        <v>449</v>
       </c>
       <c r="G8">
         <v>49</v>
@@ -1158,16 +1158,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9">
-        <v>225</v>
+        <v>449</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -1190,16 +1190,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E10">
-        <v>220</v>
+        <v>449</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -1222,16 +1222,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D11">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="E11">
-        <v>285</v>
+        <v>449</v>
       </c>
       <c r="G11">
         <v>7</v>
@@ -1254,16 +1254,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D12">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="E12">
-        <v>286</v>
+        <v>449</v>
       </c>
       <c r="G12">
         <v>7</v>
@@ -1286,16 +1286,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13">
         <v>3</v>
       </c>
       <c r="E13">
-        <v>189</v>
+        <v>449</v>
       </c>
       <c r="G13">
         <v>4</v>
@@ -1318,16 +1318,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="C14">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="D14">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="E14">
-        <v>255</v>
+        <v>449</v>
       </c>
       <c r="G14">
         <v>93</v>
@@ -1395,16 +1395,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>119</v>
+        <v>449</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -1427,16 +1427,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>56</v>
+        <v>449</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -1459,16 +1459,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="C4">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="D4">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="E4">
-        <v>263</v>
+        <v>449</v>
       </c>
       <c r="G4">
         <v>104</v>
@@ -1491,16 +1491,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>59</v>
+        <v>449</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -1523,16 +1523,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>264</v>
+        <v>449</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -1555,16 +1555,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>266</v>
+        <v>449</v>
       </c>
       <c r="G7">
         <v>33</v>
@@ -1587,16 +1587,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="C8">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="D8">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="E8">
-        <v>257</v>
+        <v>449</v>
       </c>
       <c r="G8">
         <v>51</v>
@@ -1619,16 +1619,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9">
-        <v>225</v>
+        <v>449</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -1651,16 +1651,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E10">
-        <v>220</v>
+        <v>449</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -1683,16 +1683,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D11">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="E11">
-        <v>285</v>
+        <v>449</v>
       </c>
       <c r="G11">
         <v>7</v>
@@ -1715,16 +1715,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D12">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="E12">
-        <v>286</v>
+        <v>449</v>
       </c>
       <c r="G12">
         <v>7</v>
@@ -1747,16 +1747,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13">
         <v>3</v>
       </c>
       <c r="E13">
-        <v>189</v>
+        <v>449</v>
       </c>
       <c r="G13">
         <v>4</v>
@@ -1779,16 +1779,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="C14">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="D14">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="E14">
-        <v>255</v>
+        <v>449</v>
       </c>
       <c r="G14">
         <v>93</v>
@@ -1856,16 +1856,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>120</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="E2">
-        <v>119</v>
+        <v>449</v>
       </c>
       <c r="G2">
         <v>69</v>
@@ -1888,16 +1888,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>56</v>
+        <v>449</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -1920,16 +1920,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>162</v>
+        <v>301</v>
       </c>
       <c r="C4">
-        <v>162</v>
+        <v>301</v>
       </c>
       <c r="D4">
-        <v>161</v>
+        <v>301</v>
       </c>
       <c r="E4">
-        <v>263</v>
+        <v>449</v>
       </c>
       <c r="G4">
         <v>266</v>
@@ -1952,16 +1952,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>59</v>
+        <v>449</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -1984,16 +1984,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>264</v>
+        <v>449</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -2016,16 +2016,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>67</v>
+        <v>212</v>
       </c>
       <c r="C7">
-        <v>52</v>
+        <v>212</v>
       </c>
       <c r="D7">
-        <v>66</v>
+        <v>212</v>
       </c>
       <c r="E7">
-        <v>266</v>
+        <v>449</v>
       </c>
       <c r="G7">
         <v>108</v>
@@ -2048,16 +2048,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>252</v>
+        <v>439</v>
       </c>
       <c r="C8">
-        <v>255</v>
+        <v>439</v>
       </c>
       <c r="D8">
-        <v>252</v>
+        <v>439</v>
       </c>
       <c r="E8">
-        <v>257</v>
+        <v>449</v>
       </c>
       <c r="G8">
         <v>408</v>
@@ -2080,16 +2080,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9">
-        <v>225</v>
+        <v>449</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -2112,16 +2112,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D10">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="E10">
-        <v>220</v>
+        <v>449</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -2144,16 +2144,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D11">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="E11">
-        <v>285</v>
+        <v>449</v>
       </c>
       <c r="G11">
         <v>7</v>
@@ -2176,16 +2176,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D12">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="E12">
-        <v>286</v>
+        <v>449</v>
       </c>
       <c r="G12">
         <v>7</v>
@@ -2208,16 +2208,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>7</v>
+        <v>179</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>179</v>
       </c>
       <c r="D13">
-        <v>6</v>
+        <v>179</v>
       </c>
       <c r="E13">
-        <v>189</v>
+        <v>449</v>
       </c>
       <c r="G13">
         <v>5</v>
@@ -2240,16 +2240,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>166</v>
+        <v>326</v>
       </c>
       <c r="C14">
-        <v>186</v>
+        <v>326</v>
       </c>
       <c r="D14">
-        <v>165</v>
+        <v>326</v>
       </c>
       <c r="E14">
-        <v>255</v>
+        <v>449</v>
       </c>
       <c r="G14">
         <v>320</v>
@@ -2317,16 +2317,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>94</v>
       </c>
       <c r="E2">
-        <v>119</v>
+        <v>449</v>
       </c>
       <c r="G2">
         <v>69</v>
@@ -2349,16 +2349,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>56</v>
+        <v>449</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -2381,16 +2381,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>162</v>
+        <v>270</v>
       </c>
       <c r="C4">
-        <v>18</v>
+        <v>270</v>
       </c>
       <c r="D4">
-        <v>161</v>
+        <v>270</v>
       </c>
       <c r="E4">
-        <v>263</v>
+        <v>449</v>
       </c>
       <c r="G4">
         <v>266</v>
@@ -2413,16 +2413,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>59</v>
+        <v>449</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -2445,16 +2445,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>264</v>
+        <v>449</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -2477,16 +2477,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>67</v>
+        <v>180</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>180</v>
       </c>
       <c r="D7">
-        <v>66</v>
+        <v>180</v>
       </c>
       <c r="E7">
-        <v>266</v>
+        <v>449</v>
       </c>
       <c r="G7">
         <v>108</v>
@@ -2509,16 +2509,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>252</v>
+        <v>428</v>
       </c>
       <c r="C8">
-        <v>200</v>
+        <v>428</v>
       </c>
       <c r="D8">
-        <v>252</v>
+        <v>428</v>
       </c>
       <c r="E8">
-        <v>257</v>
+        <v>449</v>
       </c>
       <c r="G8">
         <v>408</v>
@@ -2541,16 +2541,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9">
-        <v>225</v>
+        <v>449</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -2573,16 +2573,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="E10">
-        <v>220</v>
+        <v>449</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -2605,16 +2605,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D11">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="E11">
-        <v>285</v>
+        <v>449</v>
       </c>
       <c r="G11">
         <v>7</v>
@@ -2637,16 +2637,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D12">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="E12">
-        <v>286</v>
+        <v>449</v>
       </c>
       <c r="G12">
         <v>7</v>
@@ -2669,16 +2669,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>7</v>
+        <v>151</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>151</v>
       </c>
       <c r="D13">
-        <v>6</v>
+        <v>151</v>
       </c>
       <c r="E13">
-        <v>189</v>
+        <v>449</v>
       </c>
       <c r="G13">
         <v>5</v>
@@ -2701,16 +2701,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>166</v>
+        <v>294</v>
       </c>
       <c r="C14">
-        <v>12</v>
+        <v>294</v>
       </c>
       <c r="D14">
-        <v>165</v>
+        <v>294</v>
       </c>
       <c r="E14">
-        <v>255</v>
+        <v>449</v>
       </c>
       <c r="G14">
         <v>320</v>
@@ -2778,16 +2778,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>119</v>
+        <v>449</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -2810,16 +2810,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>56</v>
+        <v>449</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -2842,16 +2842,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D4">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="E4">
-        <v>263</v>
+        <v>449</v>
       </c>
       <c r="G4">
         <v>62</v>
@@ -2874,16 +2874,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>59</v>
+        <v>449</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -2906,16 +2906,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
       <c r="E6">
-        <v>264</v>
+        <v>449</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -2938,7 +2938,7 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -2947,7 +2947,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>266</v>
+        <v>449</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -2970,16 +2970,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E8">
-        <v>257</v>
+        <v>449</v>
       </c>
       <c r="G8">
         <v>6</v>
@@ -3002,16 +3002,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9">
-        <v>225</v>
+        <v>449</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -3034,16 +3034,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E10">
-        <v>220</v>
+        <v>449</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -3066,16 +3066,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D11">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="E11">
-        <v>285</v>
+        <v>449</v>
       </c>
       <c r="G11">
         <v>7</v>
@@ -3098,16 +3098,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D12">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="E12">
-        <v>286</v>
+        <v>449</v>
       </c>
       <c r="G12">
         <v>7</v>
@@ -3130,16 +3130,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13">
         <v>2</v>
       </c>
       <c r="E13">
-        <v>189</v>
+        <v>449</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -3162,16 +3162,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C14">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D14">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E14">
-        <v>255</v>
+        <v>449</v>
       </c>
       <c r="G14">
         <v>43</v>
@@ -3239,16 +3239,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D2">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E2">
-        <v>119</v>
+        <v>449</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -3271,16 +3271,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>56</v>
+        <v>449</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -3303,16 +3303,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D4">
         <v>15</v>
       </c>
       <c r="E4">
-        <v>263</v>
+        <v>449</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -3335,16 +3335,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>59</v>
+        <v>449</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -3367,16 +3367,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>264</v>
+        <v>449</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -3399,16 +3399,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>266</v>
+        <v>449</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -3431,16 +3431,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E8">
-        <v>257</v>
+        <v>449</v>
       </c>
       <c r="G8">
         <v>5</v>
@@ -3463,16 +3463,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9">
-        <v>225</v>
+        <v>449</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -3504,7 +3504,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>220</v>
+        <v>449</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -3527,16 +3527,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D11">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="E11">
-        <v>285</v>
+        <v>449</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -3562,13 +3562,13 @@
         <v>2</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12">
         <v>2</v>
       </c>
       <c r="E12">
-        <v>286</v>
+        <v>449</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -3591,16 +3591,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E13">
-        <v>189</v>
+        <v>449</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -3623,16 +3623,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C14">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D14">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E14">
-        <v>255</v>
+        <v>449</v>
       </c>
       <c r="G14">
         <v>7</v>
@@ -3700,16 +3700,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="C2">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D2">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E2">
-        <v>119</v>
+        <v>449</v>
       </c>
       <c r="G2">
         <v>43</v>
@@ -3732,16 +3732,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E3">
-        <v>56</v>
+        <v>449</v>
       </c>
       <c r="G3">
         <v>7</v>
@@ -3764,16 +3764,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D4">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E4">
-        <v>263</v>
+        <v>449</v>
       </c>
       <c r="G4">
         <v>32</v>
@@ -3796,16 +3796,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>59</v>
+        <v>449</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -3828,16 +3828,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E6">
-        <v>264</v>
+        <v>449</v>
       </c>
       <c r="G6">
         <v>35</v>
@@ -3860,16 +3860,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E7">
-        <v>266</v>
+        <v>449</v>
       </c>
       <c r="G7">
         <v>28</v>
@@ -3892,16 +3892,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E8">
-        <v>257</v>
+        <v>449</v>
       </c>
       <c r="G8">
         <v>11</v>
@@ -3924,16 +3924,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E9">
-        <v>225</v>
+        <v>449</v>
       </c>
       <c r="G9">
         <v>8</v>
@@ -3956,16 +3956,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E10">
-        <v>220</v>
+        <v>449</v>
       </c>
       <c r="G10">
         <v>7</v>
@@ -3988,16 +3988,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E11">
-        <v>285</v>
+        <v>449</v>
       </c>
       <c r="G11">
         <v>9</v>
@@ -4020,16 +4020,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E12">
-        <v>286</v>
+        <v>449</v>
       </c>
       <c r="G12">
         <v>8</v>
@@ -4052,16 +4052,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13">
-        <v>189</v>
+        <v>449</v>
       </c>
       <c r="G13">
         <v>7</v>
@@ -4084,16 +4084,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="C14">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D14">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E14">
-        <v>255</v>
+        <v>449</v>
       </c>
       <c r="G14">
         <v>47</v>
@@ -4161,16 +4161,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>9</v>
+        <v>232</v>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>232</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>232</v>
       </c>
       <c r="E2">
-        <v>119</v>
+        <v>449</v>
       </c>
       <c r="G2">
         <v>222</v>
@@ -4193,16 +4193,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>56</v>
+        <v>449</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -4225,16 +4225,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>195</v>
+        <v>332</v>
       </c>
       <c r="C4">
-        <v>18</v>
+        <v>332</v>
       </c>
       <c r="D4">
-        <v>194</v>
+        <v>332</v>
       </c>
       <c r="E4">
-        <v>263</v>
+        <v>449</v>
       </c>
       <c r="G4">
         <v>325</v>
@@ -4257,16 +4257,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>59</v>
+        <v>449</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -4289,16 +4289,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>122</v>
+        <v>223</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>223</v>
       </c>
       <c r="D6">
-        <v>121</v>
+        <v>223</v>
       </c>
       <c r="E6">
-        <v>264</v>
+        <v>449</v>
       </c>
       <c r="G6">
         <v>118</v>
@@ -4321,16 +4321,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>188</v>
+        <v>329</v>
       </c>
       <c r="C7">
-        <v>11</v>
+        <v>329</v>
       </c>
       <c r="D7">
-        <v>187</v>
+        <v>329</v>
       </c>
       <c r="E7">
-        <v>266</v>
+        <v>449</v>
       </c>
       <c r="G7">
         <v>319</v>
@@ -4353,16 +4353,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>252</v>
+        <v>440</v>
       </c>
       <c r="C8">
-        <v>209</v>
+        <v>440</v>
       </c>
       <c r="D8">
-        <v>252</v>
+        <v>440</v>
       </c>
       <c r="E8">
-        <v>257</v>
+        <v>449</v>
       </c>
       <c r="G8">
         <v>418</v>
@@ -4385,16 +4385,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>249</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>249</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>249</v>
       </c>
       <c r="E9">
-        <v>225</v>
+        <v>449</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -4417,16 +4417,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>208</v>
+        <v>421</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>421</v>
       </c>
       <c r="D10">
-        <v>208</v>
+        <v>421</v>
       </c>
       <c r="E10">
-        <v>220</v>
+        <v>449</v>
       </c>
       <c r="G10">
         <v>106</v>
@@ -4449,16 +4449,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>213</v>
+        <v>296</v>
       </c>
       <c r="C11">
-        <v>6</v>
+        <v>296</v>
       </c>
       <c r="D11">
-        <v>213</v>
+        <v>296</v>
       </c>
       <c r="E11">
-        <v>285</v>
+        <v>449</v>
       </c>
       <c r="G11">
         <v>115</v>
@@ -4481,16 +4481,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>184</v>
+        <v>255</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>255</v>
       </c>
       <c r="D12">
-        <v>184</v>
+        <v>255</v>
       </c>
       <c r="E12">
-        <v>286</v>
+        <v>449</v>
       </c>
       <c r="G12">
         <v>51</v>
@@ -4513,16 +4513,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>101</v>
+        <v>228</v>
       </c>
       <c r="C13">
-        <v>11</v>
+        <v>228</v>
       </c>
       <c r="D13">
-        <v>100</v>
+        <v>228</v>
       </c>
       <c r="E13">
-        <v>189</v>
+        <v>449</v>
       </c>
       <c r="G13">
         <v>123</v>
@@ -4545,16 +4545,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>179</v>
+        <v>337</v>
       </c>
       <c r="C14">
-        <v>12</v>
+        <v>337</v>
       </c>
       <c r="D14">
-        <v>178</v>
+        <v>337</v>
       </c>
       <c r="E14">
-        <v>255</v>
+        <v>449</v>
       </c>
       <c r="G14">
         <v>336</v>
@@ -4622,16 +4622,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>119</v>
+        <v>449</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -4654,16 +4654,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>56</v>
+        <v>449</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -4686,16 +4686,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E4">
-        <v>263</v>
+        <v>449</v>
       </c>
       <c r="G4">
         <v>58</v>
@@ -4718,16 +4718,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>59</v>
+        <v>449</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -4753,13 +4753,13 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>264</v>
+        <v>449</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -4782,7 +4782,7 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -4791,7 +4791,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>266</v>
+        <v>449</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -4814,16 +4814,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E8">
-        <v>257</v>
+        <v>449</v>
       </c>
       <c r="G8">
         <v>6</v>
@@ -4846,16 +4846,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9">
-        <v>225</v>
+        <v>449</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -4878,16 +4878,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>220</v>
+        <v>449</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -4910,16 +4910,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D11">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="E11">
-        <v>285</v>
+        <v>449</v>
       </c>
       <c r="G11">
         <v>7</v>
@@ -4942,16 +4942,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D12">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="E12">
-        <v>286</v>
+        <v>449</v>
       </c>
       <c r="G12">
         <v>7</v>
@@ -4974,16 +4974,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13">
         <v>2</v>
       </c>
       <c r="E13">
-        <v>189</v>
+        <v>449</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -5006,16 +5006,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="C14">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D14">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="E14">
-        <v>255</v>
+        <v>449</v>
       </c>
       <c r="G14">
         <v>40</v>
@@ -5083,16 +5083,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E2">
-        <v>119</v>
+        <v>449</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -5115,16 +5115,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>56</v>
+        <v>449</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -5147,16 +5147,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4">
-        <v>263</v>
+        <v>449</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -5179,16 +5179,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>59</v>
+        <v>449</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -5214,13 +5214,13 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>264</v>
+        <v>449</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -5243,7 +5243,7 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -5252,7 +5252,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>266</v>
+        <v>449</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -5278,13 +5278,13 @@
         <v>3</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8">
         <v>3</v>
       </c>
       <c r="E8">
-        <v>257</v>
+        <v>449</v>
       </c>
       <c r="G8">
         <v>5</v>
@@ -5307,16 +5307,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9">
-        <v>225</v>
+        <v>449</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -5348,7 +5348,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>220</v>
+        <v>449</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -5371,16 +5371,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E11">
-        <v>285</v>
+        <v>449</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -5403,16 +5403,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>286</v>
+        <v>449</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -5435,16 +5435,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13">
         <v>2</v>
       </c>
       <c r="E13">
-        <v>189</v>
+        <v>449</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -5467,16 +5467,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D14">
         <v>15</v>
       </c>
       <c r="E14">
-        <v>255</v>
+        <v>449</v>
       </c>
       <c r="G14">
         <v>7</v>
@@ -5544,16 +5544,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>119</v>
+        <v>449</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -5576,16 +5576,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>56</v>
+        <v>449</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -5608,16 +5608,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C4">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="D4">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E4">
-        <v>263</v>
+        <v>449</v>
       </c>
       <c r="G4">
         <v>123</v>
@@ -5640,16 +5640,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>59</v>
+        <v>449</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -5672,16 +5672,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="E6">
-        <v>264</v>
+        <v>449</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -5704,16 +5704,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D7">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="E7">
-        <v>266</v>
+        <v>449</v>
       </c>
       <c r="G7">
         <v>63</v>
@@ -5736,16 +5736,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="C8">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="D8">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="E8">
-        <v>257</v>
+        <v>449</v>
       </c>
       <c r="G8">
         <v>60</v>
@@ -5768,16 +5768,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>96</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9">
-        <v>96</v>
+        <v>4</v>
       </c>
       <c r="E9">
-        <v>225</v>
+        <v>449</v>
       </c>
       <c r="G9">
         <v>8</v>
@@ -5800,16 +5800,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>132</v>
+        <v>26</v>
       </c>
       <c r="C10">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D10">
-        <v>132</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>220</v>
+        <v>449</v>
       </c>
       <c r="G10">
         <v>14</v>
@@ -5832,16 +5832,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>163</v>
+        <v>21</v>
       </c>
       <c r="C11">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D11">
-        <v>163</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>285</v>
+        <v>449</v>
       </c>
       <c r="G11">
         <v>7</v>
@@ -5864,16 +5864,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>122</v>
+        <v>8</v>
       </c>
       <c r="C12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D12">
-        <v>122</v>
+        <v>8</v>
       </c>
       <c r="E12">
-        <v>286</v>
+        <v>449</v>
       </c>
       <c r="G12">
         <v>7</v>
@@ -5896,16 +5896,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13">
         <v>3</v>
       </c>
       <c r="E13">
-        <v>189</v>
+        <v>449</v>
       </c>
       <c r="G13">
         <v>4</v>
@@ -5928,16 +5928,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="C14">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="D14">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="E14">
-        <v>255</v>
+        <v>449</v>
       </c>
       <c r="G14">
         <v>96</v>
@@ -6005,16 +6005,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>119</v>
+        <v>449</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -6046,7 +6046,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>56</v>
+        <v>449</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -6069,16 +6069,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C4">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="D4">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E4">
-        <v>263</v>
+        <v>449</v>
       </c>
       <c r="G4">
         <v>52</v>
@@ -6101,16 +6101,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>59</v>
+        <v>449</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -6133,16 +6133,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E6">
-        <v>264</v>
+        <v>449</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -6165,7 +6165,7 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>266</v>
+        <v>449</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -6197,16 +6197,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E8">
-        <v>257</v>
+        <v>449</v>
       </c>
       <c r="G8">
         <v>6</v>
@@ -6229,16 +6229,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9">
-        <v>225</v>
+        <v>449</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -6270,7 +6270,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>220</v>
+        <v>449</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -6293,16 +6293,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="C11">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D11">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="E11">
-        <v>285</v>
+        <v>449</v>
       </c>
       <c r="G11">
         <v>7</v>
@@ -6325,16 +6325,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E12">
-        <v>286</v>
+        <v>449</v>
       </c>
       <c r="G12">
         <v>7</v>
@@ -6360,13 +6360,13 @@
         <v>3</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E13">
-        <v>189</v>
+        <v>449</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -6389,16 +6389,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="C14">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="D14">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="E14">
-        <v>255</v>
+        <v>449</v>
       </c>
       <c r="G14">
         <v>40</v>
@@ -6466,16 +6466,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="C2">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>119</v>
+        <v>449</v>
       </c>
       <c r="G2">
         <v>43</v>
@@ -6498,16 +6498,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E3">
-        <v>56</v>
+        <v>449</v>
       </c>
       <c r="G3">
         <v>7</v>
@@ -6530,16 +6530,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E4">
-        <v>263</v>
+        <v>449</v>
       </c>
       <c r="G4">
         <v>32</v>
@@ -6562,16 +6562,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>59</v>
+        <v>449</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -6594,16 +6594,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D6">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E6">
-        <v>264</v>
+        <v>449</v>
       </c>
       <c r="G6">
         <v>35</v>
@@ -6626,16 +6626,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E7">
-        <v>266</v>
+        <v>449</v>
       </c>
       <c r="G7">
         <v>28</v>
@@ -6658,16 +6658,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D8">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E8">
-        <v>257</v>
+        <v>449</v>
       </c>
       <c r="G8">
         <v>11</v>
@@ -6690,16 +6690,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E9">
-        <v>225</v>
+        <v>449</v>
       </c>
       <c r="G9">
         <v>8</v>
@@ -6722,16 +6722,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E10">
-        <v>220</v>
+        <v>449</v>
       </c>
       <c r="G10">
         <v>7</v>
@@ -6754,16 +6754,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D11">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E11">
-        <v>285</v>
+        <v>449</v>
       </c>
       <c r="G11">
         <v>9</v>
@@ -6786,16 +6786,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E12">
-        <v>286</v>
+        <v>449</v>
       </c>
       <c r="G12">
         <v>8</v>
@@ -6818,16 +6818,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E13">
-        <v>189</v>
+        <v>449</v>
       </c>
       <c r="G13">
         <v>7</v>
@@ -6850,16 +6850,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="C14">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D14">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E14">
-        <v>255</v>
+        <v>449</v>
       </c>
       <c r="G14">
         <v>47</v>
@@ -6927,16 +6927,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>9</v>
+        <v>232</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>232</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>232</v>
       </c>
       <c r="E2">
-        <v>119</v>
+        <v>449</v>
       </c>
       <c r="G2">
         <v>222</v>
@@ -6959,16 +6959,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>56</v>
+        <v>449</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -6991,16 +6991,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>195</v>
+        <v>332</v>
       </c>
       <c r="C4">
-        <v>19</v>
+        <v>332</v>
       </c>
       <c r="D4">
-        <v>194</v>
+        <v>332</v>
       </c>
       <c r="E4">
-        <v>263</v>
+        <v>449</v>
       </c>
       <c r="G4">
         <v>325</v>
@@ -7023,16 +7023,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>59</v>
+        <v>449</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -7055,16 +7055,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>122</v>
+        <v>223</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>223</v>
       </c>
       <c r="D6">
-        <v>121</v>
+        <v>223</v>
       </c>
       <c r="E6">
-        <v>264</v>
+        <v>449</v>
       </c>
       <c r="G6">
         <v>118</v>
@@ -7087,16 +7087,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>186</v>
+        <v>329</v>
       </c>
       <c r="C7">
-        <v>11</v>
+        <v>329</v>
       </c>
       <c r="D7">
-        <v>185</v>
+        <v>329</v>
       </c>
       <c r="E7">
-        <v>266</v>
+        <v>449</v>
       </c>
       <c r="G7">
         <v>319</v>
@@ -7119,16 +7119,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>252</v>
+        <v>440</v>
       </c>
       <c r="C8">
-        <v>241</v>
+        <v>440</v>
       </c>
       <c r="D8">
-        <v>252</v>
+        <v>440</v>
       </c>
       <c r="E8">
-        <v>257</v>
+        <v>449</v>
       </c>
       <c r="G8">
         <v>418</v>
@@ -7151,16 +7151,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>261</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>261</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>261</v>
       </c>
       <c r="E9">
-        <v>225</v>
+        <v>449</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -7183,16 +7183,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>206</v>
+        <v>421</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>421</v>
       </c>
       <c r="D10">
-        <v>206</v>
+        <v>421</v>
       </c>
       <c r="E10">
-        <v>220</v>
+        <v>449</v>
       </c>
       <c r="G10">
         <v>106</v>
@@ -7215,16 +7215,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>213</v>
+        <v>294</v>
       </c>
       <c r="C11">
-        <v>6</v>
+        <v>294</v>
       </c>
       <c r="D11">
-        <v>213</v>
+        <v>294</v>
       </c>
       <c r="E11">
-        <v>285</v>
+        <v>449</v>
       </c>
       <c r="G11">
         <v>115</v>
@@ -7247,16 +7247,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>182</v>
+        <v>253</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>253</v>
       </c>
       <c r="D12">
-        <v>182</v>
+        <v>253</v>
       </c>
       <c r="E12">
-        <v>286</v>
+        <v>449</v>
       </c>
       <c r="G12">
         <v>51</v>
@@ -7279,16 +7279,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>101</v>
+        <v>230</v>
       </c>
       <c r="C13">
-        <v>8</v>
+        <v>230</v>
       </c>
       <c r="D13">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="E13">
-        <v>189</v>
+        <v>449</v>
       </c>
       <c r="G13">
         <v>123</v>
@@ -7311,16 +7311,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>179</v>
+        <v>339</v>
       </c>
       <c r="C14">
-        <v>33</v>
+        <v>339</v>
       </c>
       <c r="D14">
-        <v>178</v>
+        <v>339</v>
       </c>
       <c r="E14">
-        <v>255</v>
+        <v>449</v>
       </c>
       <c r="G14">
         <v>336</v>
@@ -7388,16 +7388,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>9</v>
+        <v>229</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>229</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>229</v>
       </c>
       <c r="E2">
-        <v>119</v>
+        <v>449</v>
       </c>
       <c r="G2">
         <v>222</v>
@@ -7420,16 +7420,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>56</v>
+        <v>449</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -7452,16 +7452,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>195</v>
+        <v>334</v>
       </c>
       <c r="C4">
-        <v>118</v>
+        <v>334</v>
       </c>
       <c r="D4">
-        <v>194</v>
+        <v>334</v>
       </c>
       <c r="E4">
-        <v>263</v>
+        <v>449</v>
       </c>
       <c r="G4">
         <v>325</v>
@@ -7484,16 +7484,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>59</v>
+        <v>449</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -7516,16 +7516,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>122</v>
+        <v>223</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>223</v>
       </c>
       <c r="D6">
-        <v>121</v>
+        <v>223</v>
       </c>
       <c r="E6">
-        <v>264</v>
+        <v>449</v>
       </c>
       <c r="G6">
         <v>118</v>
@@ -7548,16 +7548,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>186</v>
+        <v>331</v>
       </c>
       <c r="C7">
-        <v>102</v>
+        <v>331</v>
       </c>
       <c r="D7">
-        <v>185</v>
+        <v>331</v>
       </c>
       <c r="E7">
-        <v>266</v>
+        <v>449</v>
       </c>
       <c r="G7">
         <v>319</v>
@@ -7580,16 +7580,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>252</v>
+        <v>440</v>
       </c>
       <c r="C8">
-        <v>252</v>
+        <v>440</v>
       </c>
       <c r="D8">
-        <v>252</v>
+        <v>440</v>
       </c>
       <c r="E8">
-        <v>257</v>
+        <v>449</v>
       </c>
       <c r="G8">
         <v>418</v>
@@ -7612,16 +7612,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>266</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>266</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>266</v>
       </c>
       <c r="E9">
-        <v>225</v>
+        <v>449</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -7644,16 +7644,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>205</v>
+        <v>421</v>
       </c>
       <c r="C10">
-        <v>11</v>
+        <v>421</v>
       </c>
       <c r="D10">
-        <v>205</v>
+        <v>421</v>
       </c>
       <c r="E10">
-        <v>220</v>
+        <v>449</v>
       </c>
       <c r="G10">
         <v>106</v>
@@ -7676,16 +7676,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>214</v>
+        <v>296</v>
       </c>
       <c r="C11">
-        <v>6</v>
+        <v>296</v>
       </c>
       <c r="D11">
-        <v>214</v>
+        <v>296</v>
       </c>
       <c r="E11">
-        <v>285</v>
+        <v>449</v>
       </c>
       <c r="G11">
         <v>115</v>
@@ -7708,16 +7708,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>182</v>
+        <v>253</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>253</v>
       </c>
       <c r="D12">
-        <v>182</v>
+        <v>253</v>
       </c>
       <c r="E12">
-        <v>286</v>
+        <v>449</v>
       </c>
       <c r="G12">
         <v>51</v>
@@ -7740,16 +7740,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>101</v>
+        <v>230</v>
       </c>
       <c r="C13">
-        <v>8</v>
+        <v>230</v>
       </c>
       <c r="D13">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="E13">
-        <v>189</v>
+        <v>449</v>
       </c>
       <c r="G13">
         <v>123</v>
@@ -7772,16 +7772,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>179</v>
+        <v>335</v>
       </c>
       <c r="C14">
-        <v>116</v>
+        <v>335</v>
       </c>
       <c r="D14">
-        <v>178</v>
+        <v>335</v>
       </c>
       <c r="E14">
-        <v>255</v>
+        <v>449</v>
       </c>
       <c r="G14">
         <v>336</v>
@@ -7852,13 +7852,13 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E2">
-        <v>119</v>
+        <v>449</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -7881,16 +7881,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>56</v>
+        <v>449</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -7913,16 +7913,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E4">
-        <v>263</v>
+        <v>449</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -7945,16 +7945,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>59</v>
+        <v>449</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -7980,13 +7980,13 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>264</v>
+        <v>449</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -8009,7 +8009,7 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -8018,7 +8018,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>266</v>
+        <v>449</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -8041,16 +8041,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D8">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="E8">
-        <v>257</v>
+        <v>449</v>
       </c>
       <c r="G8">
         <v>5</v>
@@ -8073,16 +8073,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9">
-        <v>225</v>
+        <v>449</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -8105,16 +8105,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E10">
-        <v>220</v>
+        <v>449</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -8137,16 +8137,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D11">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="E11">
-        <v>285</v>
+        <v>449</v>
       </c>
       <c r="G11">
         <v>7</v>
@@ -8169,16 +8169,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>286</v>
+        <v>449</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -8201,16 +8201,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13">
         <v>2</v>
       </c>
       <c r="E13">
-        <v>189</v>
+        <v>449</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -8233,16 +8233,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C14">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D14">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E14">
-        <v>255</v>
+        <v>449</v>
       </c>
       <c r="G14">
         <v>7</v>
